--- a/output/fertilizer.xlsx
+++ b/output/fertilizer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="180">
   <si>
     <t>Location</t>
   </si>
@@ -71,9 +71,6 @@
     <t>2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2018</t>
-  </si>
-  <si>
     <t>HN_NF</t>
   </si>
   <si>
@@ -188,6 +185,33 @@
     <t>2018-05-19</t>
   </si>
   <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2016-04-29</t>
+  </si>
+  <si>
+    <t>2016-05-20</t>
+  </si>
+  <si>
+    <t>2016-04-13</t>
+  </si>
+  <si>
+    <t>2017-03-25</t>
+  </si>
+  <si>
+    <t>2017-05-27</t>
+  </si>
+  <si>
+    <t>2017-03-24</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
     <t>2018-04-18</t>
   </si>
   <si>
@@ -197,33 +221,6 @@
     <t>2018-04-06</t>
   </si>
   <si>
-    <t>2015-03-15</t>
-  </si>
-  <si>
-    <t>2016-03-31</t>
-  </si>
-  <si>
-    <t>2016-04-29</t>
-  </si>
-  <si>
-    <t>2016-05-20</t>
-  </si>
-  <si>
-    <t>2016-04-13</t>
-  </si>
-  <si>
-    <t>2017-03-25</t>
-  </si>
-  <si>
-    <t>2017-05-27</t>
-  </si>
-  <si>
-    <t>2017-03-24</t>
-  </si>
-  <si>
-    <t>2017-03-30</t>
-  </si>
-  <si>
     <t>2019-04-26</t>
   </si>
   <si>
@@ -386,6 +383,33 @@
     <t>46</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>50kg/ha</t>
+  </si>
+  <si>
+    <t>70kg/ha</t>
+  </si>
+  <si>
+    <t>60kg/ha</t>
+  </si>
+  <si>
+    <t>96 kg/ha</t>
+  </si>
+  <si>
+    <t>192 kg/ha</t>
+  </si>
+  <si>
+    <t>40kg/ha</t>
+  </si>
+  <si>
+    <t>30kg/ha</t>
+  </si>
+  <si>
     <t>50 kg N/ha</t>
   </si>
   <si>
@@ -416,33 +440,6 @@
     <t>60 kgN/ha</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>50kg/ha</t>
-  </si>
-  <si>
-    <t>70kg/ha</t>
-  </si>
-  <si>
-    <t>60kg/ha</t>
-  </si>
-  <si>
-    <t>96 kg/ha</t>
-  </si>
-  <si>
-    <t>192 kg/ha</t>
-  </si>
-  <si>
-    <t>40kg/ha</t>
-  </si>
-  <si>
-    <t>30kg/ha</t>
-  </si>
-  <si>
     <t>50kg N/ha</t>
   </si>
   <si>
@@ -515,34 +512,34 @@
     <t>KAS 27</t>
   </si>
   <si>
+    <t>eigntl.50kg/ha</t>
+  </si>
+  <si>
+    <t>eigntl.40kg/ha</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Keserit Mg25%</t>
+  </si>
+  <si>
+    <t>P-Dünger</t>
+  </si>
+  <si>
+    <t>K-Dünger</t>
+  </si>
+  <si>
     <t>Kierserit 25/20</t>
   </si>
   <si>
     <t>PK 12/24</t>
-  </si>
-  <si>
-    <t>eigntl.50kg/ha</t>
-  </si>
-  <si>
-    <t>eigntl.40kg/ha</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Keserit Mg25%</t>
-  </si>
-  <si>
-    <t>P-Dünger</t>
-  </si>
-  <si>
-    <t>K-Dünger</t>
   </si>
   <si>
     <t>P/K 12/24</t>
@@ -636,19 +633,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -659,19 +656,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4">
@@ -682,19 +679,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5">
@@ -705,19 +702,19 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -728,19 +725,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -751,19 +748,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
@@ -774,19 +771,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -797,19 +794,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -820,19 +817,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -843,19 +840,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
@@ -866,19 +863,19 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +886,19 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
@@ -912,19 +909,19 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -935,19 +932,19 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -958,19 +955,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -981,19 +978,19 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -1004,19 +1001,19 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1027,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1050,19 +1047,19 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -1073,19 +1070,19 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
@@ -1096,19 +1093,19 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
@@ -1119,19 +1116,19 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
@@ -1142,19 +1139,19 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
@@ -1165,19 +1162,19 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
@@ -1188,19 +1185,19 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -1211,19 +1208,19 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1234,19 +1231,19 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -1257,19 +1254,19 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30">
@@ -1280,19 +1277,19 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
@@ -1303,19 +1300,19 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
@@ -1326,19 +1323,19 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
@@ -1349,19 +1346,19 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34">
@@ -1372,19 +1369,19 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35">
@@ -1395,19 +1392,19 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36">
@@ -1418,19 +1415,19 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
@@ -1441,19 +1438,19 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
@@ -1464,19 +1461,19 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39">
@@ -1487,19 +1484,19 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40">
@@ -1510,19 +1507,19 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41">
@@ -1533,19 +1530,19 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42">
@@ -1556,19 +1553,19 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43">
@@ -1579,19 +1576,19 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44">
@@ -1602,19 +1599,19 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45">
@@ -1625,19 +1622,19 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46">
@@ -1648,19 +1645,19 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47">
@@ -1671,19 +1668,19 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48">
@@ -1694,19 +1691,19 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49">
@@ -1717,19 +1714,19 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50">
@@ -1740,19 +1737,19 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51">
@@ -1763,19 +1760,19 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52">
@@ -1786,19 +1783,19 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53">
@@ -1809,19 +1806,19 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54">
@@ -1832,19 +1829,19 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55">
@@ -1855,19 +1852,19 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56">
@@ -1878,19 +1875,19 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57">
@@ -1901,19 +1898,19 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58">
@@ -1924,19 +1921,19 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59">
@@ -1947,19 +1944,19 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60">
@@ -1970,19 +1967,19 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61">
@@ -1993,19 +1990,19 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62">
@@ -2016,19 +2013,19 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63">
@@ -2039,19 +2036,19 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64">
@@ -2062,19 +2059,19 @@
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65">
@@ -2085,19 +2082,19 @@
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66">
@@ -2108,19 +2105,19 @@
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67">
@@ -2131,19 +2128,19 @@
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68">
@@ -2154,19 +2151,19 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69">
@@ -2177,19 +2174,19 @@
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70">
@@ -2200,19 +2197,19 @@
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71">
@@ -2223,19 +2220,19 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72">
@@ -2246,19 +2243,19 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73">
@@ -2269,19 +2266,19 @@
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74">
@@ -2292,19 +2289,19 @@
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75">
@@ -2315,19 +2312,19 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76">
@@ -2335,22 +2332,22 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77">
@@ -2358,22 +2355,22 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78">
@@ -2381,22 +2378,22 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
         <v>57</v>
       </c>
       <c r="F78" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
@@ -2404,22 +2401,22 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G79" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80">
@@ -2427,22 +2424,22 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81">
@@ -2450,22 +2447,22 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
         <v>60</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G81" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82">
@@ -2473,19 +2470,19 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
         <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F82" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G82" t="s">
         <v>168</v>
@@ -2496,22 +2493,22 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G83" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84">
@@ -2519,22 +2516,22 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G84" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85">
@@ -2542,22 +2539,22 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F85" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86">
@@ -2565,22 +2562,22 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G86" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87">
@@ -2588,22 +2585,22 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G87" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88">
@@ -2611,19 +2608,19 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
         <v>168</v>
@@ -2634,22 +2631,22 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90">
@@ -2657,22 +2654,22 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F90" t="s">
         <v>124</v>
       </c>
       <c r="G90" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91">
@@ -2680,22 +2677,22 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G91" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92">
@@ -2703,22 +2700,22 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F92" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G92" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93">
@@ -2726,22 +2723,22 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
         <v>60</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G93" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94">
@@ -2749,19 +2746,19 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G94" t="s">
         <v>168</v>
@@ -2772,22 +2769,22 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G95" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96">
@@ -2795,22 +2792,22 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G96" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97">
@@ -2818,22 +2815,22 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G97" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
@@ -2841,22 +2838,22 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G98" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
@@ -2864,22 +2861,22 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G99" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
@@ -2887,22 +2884,22 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
         <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="G100" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101">
@@ -2910,22 +2907,22 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E101" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G101" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102">
@@ -2933,22 +2930,22 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G102" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103">
@@ -2956,22 +2953,22 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G103" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
@@ -2979,7 +2976,7 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
@@ -2988,13 +2985,13 @@
         <v>25</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
@@ -3002,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
@@ -3011,13 +3008,13 @@
         <v>26</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
@@ -3025,22 +3022,22 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
         <v>64</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G106" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107">
@@ -3048,22 +3045,22 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
         <v>65</v>
       </c>
       <c r="F107" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G107" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108">
@@ -3071,22 +3068,22 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
         <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E108" t="s">
         <v>65</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G108" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109">
@@ -3094,22 +3091,22 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F109" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G109" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
@@ -3117,7 +3114,7 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>21</v>
@@ -3126,13 +3123,13 @@
         <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
@@ -3140,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
@@ -3149,13 +3146,13 @@
         <v>26</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
@@ -3163,22 +3160,22 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E112" t="s">
         <v>64</v>
       </c>
       <c r="F112" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G112" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113">
@@ -3186,22 +3183,22 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E113" t="s">
         <v>65</v>
       </c>
       <c r="F113" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G113" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114">
@@ -3209,22 +3206,22 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
         <v>65</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G114" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115">
@@ -3232,22 +3229,22 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G115" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
@@ -3255,22 +3252,22 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
         <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F116" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
@@ -3278,22 +3275,22 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>26</v>
       </c>
       <c r="E117" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F117" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="G117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
@@ -3301,22 +3298,22 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E118" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F118" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="G118" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119">
@@ -3324,22 +3321,22 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G119" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
@@ -3347,22 +3344,22 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E120" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F120" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G120" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121">
@@ -3370,22 +3367,22 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G121" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122">
@@ -3393,22 +3390,22 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
         <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s">
         <v>66</v>
       </c>
       <c r="F122" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
@@ -3416,22 +3413,22 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
         <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123" t="s">
         <v>67</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
@@ -3439,22 +3436,22 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
@@ -3462,19 +3459,19 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s">
         <v>68</v>
       </c>
       <c r="F125" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G125" t="s">
         <v>174</v>
@@ -3485,22 +3482,22 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G126" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
@@ -3508,22 +3505,22 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
         <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128">
@@ -3531,22 +3528,22 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F128" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G128" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129">
@@ -3554,22 +3551,22 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
@@ -3577,22 +3574,22 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G130" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131">
@@ -3600,22 +3597,22 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
         <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G131" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
@@ -3623,19 +3620,19 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F132" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G132" t="s">
         <v>175</v>
@@ -3646,22 +3643,22 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
         <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E133" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134">
@@ -3669,22 +3666,22 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E134" t="s">
         <v>66</v>
       </c>
       <c r="F134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
@@ -3692,22 +3689,22 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
         <v>67</v>
       </c>
       <c r="F135" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="G135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136">
@@ -3715,22 +3712,22 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F136" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="G136" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137">
@@ -3738,22 +3735,22 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F137" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G137" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
@@ -3761,19 +3758,19 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G138" t="s">
         <v>175</v>
@@ -3784,22 +3781,22 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E139" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140">
@@ -3810,19 +3807,19 @@
         <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141">
@@ -3833,19 +3830,19 @@
         <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142">
@@ -3856,19 +3853,19 @@
         <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143">
@@ -3879,19 +3876,19 @@
         <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E143" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144">
@@ -3902,19 +3899,19 @@
         <v>17</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G144" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145">
@@ -3925,19 +3922,19 @@
         <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146">
@@ -3948,19 +3945,19 @@
         <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147">
@@ -3971,19 +3968,19 @@
         <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148">
@@ -3994,19 +3991,19 @@
         <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E148" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149">
@@ -4017,19 +4014,19 @@
         <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150">
@@ -4040,19 +4037,19 @@
         <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E150" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151">
@@ -4063,19 +4060,19 @@
         <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152">
@@ -4086,19 +4083,19 @@
         <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153">
@@ -4109,19 +4106,19 @@
         <v>17</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F153" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154">
@@ -4132,19 +4129,19 @@
         <v>17</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E154" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155">
@@ -4155,19 +4152,19 @@
         <v>17</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156">
@@ -4178,19 +4175,19 @@
         <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157">
@@ -4201,19 +4198,19 @@
         <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E157" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158">
@@ -4224,19 +4221,19 @@
         <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G158" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159">
@@ -4247,19 +4244,19 @@
         <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160">
@@ -4270,19 +4267,19 @@
         <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161">
@@ -4293,19 +4290,19 @@
         <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162">
@@ -4316,19 +4313,19 @@
         <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E162" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F162" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163">
@@ -4339,19 +4336,19 @@
         <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" t="s">
         <v>30</v>
       </c>
-      <c r="E163" t="s">
-        <v>31</v>
-      </c>
       <c r="F163" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164">
@@ -4362,19 +4359,19 @@
         <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G164" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165">
@@ -4385,19 +4382,19 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166">
@@ -4408,19 +4405,19 @@
         <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E166" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F166" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G166" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167">
@@ -4431,19 +4428,19 @@
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" t="s">
         <v>30</v>
       </c>
-      <c r="E167" t="s">
-        <v>31</v>
-      </c>
       <c r="F167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168">
@@ -4454,19 +4451,19 @@
         <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169">
@@ -4477,19 +4474,19 @@
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E169" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F169" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170">
@@ -4500,19 +4497,19 @@
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" t="s">
         <v>30</v>
       </c>
-      <c r="E170" t="s">
-        <v>31</v>
-      </c>
       <c r="F170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171">
@@ -4523,19 +4520,19 @@
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172">
@@ -4546,19 +4543,19 @@
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E172" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F172" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173">
@@ -4569,19 +4566,19 @@
         <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E173" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F173" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174">
@@ -4592,19 +4589,19 @@
         <v>15</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E174" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F174" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175">
@@ -4615,19 +4612,19 @@
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E175" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F175" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176">
@@ -4638,19 +4635,19 @@
         <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F176" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177">
@@ -4661,19 +4658,19 @@
         <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F177" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G177" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178">
@@ -4684,19 +4681,19 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E178" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F178" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G178" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179">
@@ -4707,19 +4704,19 @@
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E179" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F179" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G179" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180">
@@ -4730,19 +4727,19 @@
         <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F180" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181">
@@ -4753,19 +4750,19 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F181" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G181" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182">
@@ -4776,19 +4773,19 @@
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E182" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G182" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183">
@@ -4799,19 +4796,19 @@
         <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E183" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F183" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G183" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184">
@@ -4822,19 +4819,19 @@
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E184" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F184" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G184" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185">
@@ -4845,19 +4842,19 @@
         <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E185" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F185" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186">
@@ -4868,19 +4865,19 @@
         <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E186" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F186" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G186" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187">
@@ -4891,19 +4888,19 @@
         <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F187" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G187" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188">
@@ -4914,19 +4911,19 @@
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E188" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F188" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G188" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189">
@@ -4937,19 +4934,19 @@
         <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E189" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G189" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190">
@@ -4960,19 +4957,19 @@
         <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E190" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F190" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G190" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191">
@@ -4983,19 +4980,19 @@
         <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E191" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G191" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192">
@@ -5006,19 +5003,19 @@
         <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E192" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193">
@@ -5029,19 +5026,19 @@
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E193" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G193" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="194">
@@ -5052,19 +5049,19 @@
         <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E194" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F194" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G194" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195">
@@ -5075,19 +5072,19 @@
         <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E195" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F195" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196">
@@ -5098,19 +5095,19 @@
         <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F196" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G196" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197">
@@ -5121,19 +5118,19 @@
         <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E197" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F197" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G197" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="198">
@@ -5144,19 +5141,19 @@
         <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E198" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F198" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G198" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="199">
@@ -5167,19 +5164,19 @@
         <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E199" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F199" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="200">
@@ -5190,19 +5187,19 @@
         <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E200" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F200" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G200" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201">
@@ -5213,19 +5210,19 @@
         <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E201" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F201" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G201" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="202">
@@ -5236,19 +5233,19 @@
         <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E202" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F202" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203">
@@ -5259,19 +5256,19 @@
         <v>18</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E203" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F203" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204">
@@ -5282,19 +5279,19 @@
         <v>18</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E204" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F204" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205">
@@ -5305,19 +5302,19 @@
         <v>18</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E205" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F205" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G205" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206">
@@ -5328,19 +5325,19 @@
         <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E206" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F206" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G206" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207">
@@ -5351,19 +5348,19 @@
         <v>18</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E207" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F207" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G207" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="208">
@@ -5374,19 +5371,19 @@
         <v>18</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E208" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F208" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="209">
@@ -5397,19 +5394,19 @@
         <v>18</v>
       </c>
       <c r="C209" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F209" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G209" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210">
@@ -5420,19 +5417,19 @@
         <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E210" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F210" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G210" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211">
@@ -5443,19 +5440,19 @@
         <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E211" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F211" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G211" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212">
@@ -5466,19 +5463,19 @@
         <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D212" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E212" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F212" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G212" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="213">
@@ -5489,19 +5486,19 @@
         <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E213" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F213" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G213" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214">
@@ -5512,19 +5509,19 @@
         <v>18</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E214" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F214" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G214" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="215">
@@ -5535,19 +5532,19 @@
         <v>18</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E215" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F215" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G215" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216">
@@ -5558,19 +5555,19 @@
         <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E216" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F216" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G216" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217">
@@ -5581,19 +5578,19 @@
         <v>18</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F217" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G217" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="218">
@@ -5604,19 +5601,19 @@
         <v>18</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E218" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F218" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G218" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="219">
@@ -5627,19 +5624,19 @@
         <v>18</v>
       </c>
       <c r="C219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E219" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F219" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G219" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220">
@@ -5650,19 +5647,19 @@
         <v>18</v>
       </c>
       <c r="C220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E220" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F220" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G220" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221">
@@ -5673,19 +5670,19 @@
         <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E221" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F221" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G221" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="222">
@@ -5696,19 +5693,19 @@
         <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E222" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F222" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="223">
@@ -5719,19 +5716,19 @@
         <v>17</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E223" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F223" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G223" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="224">
@@ -5742,19 +5739,19 @@
         <v>17</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F224" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G224" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="225">
@@ -5765,19 +5762,19 @@
         <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F225" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G225" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226">
@@ -5788,19 +5785,19 @@
         <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E226" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F226" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227">
@@ -5811,19 +5808,19 @@
         <v>17</v>
       </c>
       <c r="C227" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E227" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F227" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G227" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="228">
@@ -5834,19 +5831,19 @@
         <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E228" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F228" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G228" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="229">
@@ -5857,19 +5854,19 @@
         <v>17</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E229" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F229" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G229" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="230">
@@ -5880,19 +5877,19 @@
         <v>17</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F230" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G230" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="231">
@@ -5903,19 +5900,19 @@
         <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E231" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F231" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G231" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="232">
@@ -5926,19 +5923,19 @@
         <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E232" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F232" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G232" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="233">
@@ -5949,19 +5946,19 @@
         <v>17</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F233" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G233" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234">
@@ -5972,19 +5969,19 @@
         <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F234" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G234" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="235">
@@ -5995,19 +5992,19 @@
         <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E235" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F235" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="236">
@@ -6018,19 +6015,19 @@
         <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E236" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F236" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G236" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="237">
@@ -6041,19 +6038,19 @@
         <v>17</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F237" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G237" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="238">
@@ -6064,19 +6061,19 @@
         <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F238" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="239">
@@ -6087,19 +6084,19 @@
         <v>14</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F239" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G239" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="240">
@@ -6110,19 +6107,19 @@
         <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E240" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F240" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G240" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="241">
@@ -6133,19 +6130,19 @@
         <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F241" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G241" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="242">
@@ -6156,19 +6153,19 @@
         <v>14</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E242" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F242" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G242" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="243">
@@ -6179,19 +6176,19 @@
         <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E243" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F243" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G243" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="244">
@@ -6202,19 +6199,19 @@
         <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G244" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="245">
@@ -6225,19 +6222,19 @@
         <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G245" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="246">
@@ -6248,19 +6245,19 @@
         <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E246" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F246" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G246" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="247">
@@ -6271,19 +6268,19 @@
         <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F247" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G247" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="248">
@@ -6294,19 +6291,19 @@
         <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D248" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E248" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G248" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="249">
@@ -6317,19 +6314,19 @@
         <v>15</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E249" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F249" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G249" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="250">
@@ -6340,19 +6337,19 @@
         <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E250" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F250" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G250" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="251">
@@ -6363,19 +6360,19 @@
         <v>16</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E251" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F251" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G251" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="252">
@@ -6386,19 +6383,19 @@
         <v>16</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E252" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F252" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G252" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="253">
@@ -6409,19 +6406,19 @@
         <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D253" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E253" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F253" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G253" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="254">
@@ -6432,19 +6429,19 @@
         <v>16</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F254" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G254" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="255">
@@ -6455,19 +6452,19 @@
         <v>16</v>
       </c>
       <c r="C255" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D255" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E255" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F255" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G255" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="256">
@@ -6478,19 +6475,19 @@
         <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D256" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E256" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F256" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G256" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="257">
@@ -6501,19 +6498,19 @@
         <v>14</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E257" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F257" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G257" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="258">
@@ -6524,19 +6521,19 @@
         <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D258" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E258" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F258" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G258" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="259">
@@ -6547,19 +6544,19 @@
         <v>14</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E259" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F259" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G259" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="260">
@@ -6570,19 +6567,19 @@
         <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D260" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E260" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F260" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G260" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="261">
@@ -6593,19 +6590,19 @@
         <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D261" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E261" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F261" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G261" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="262">
@@ -6616,19 +6613,19 @@
         <v>14</v>
       </c>
       <c r="C262" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E262" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F262" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G262" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="263">
@@ -6639,19 +6636,19 @@
         <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E263" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F263" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G263" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="264">
@@ -6662,19 +6659,19 @@
         <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E264" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F264" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G264" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="265">
@@ -6685,19 +6682,19 @@
         <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D265" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E265" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F265" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G265" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="266">
@@ -6708,19 +6705,19 @@
         <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D266" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E266" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F266" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G266" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="267">
@@ -6731,19 +6728,19 @@
         <v>15</v>
       </c>
       <c r="C267" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E267" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F267" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G267" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="268">
@@ -6754,19 +6751,19 @@
         <v>15</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D268" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F268" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G268" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="269">
@@ -6777,19 +6774,19 @@
         <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D269" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E269" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F269" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G269" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="270">
@@ -6800,19 +6797,19 @@
         <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D270" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E270" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F270" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G270" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="271">
@@ -6823,19 +6820,19 @@
         <v>15</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E271" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F271" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G271" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/output/fertilizer.xlsx
+++ b/output/fertilizer.xlsx
@@ -35,9 +35,6 @@
     <t>Notice</t>
   </si>
   <si>
-    <t>BON</t>
-  </si>
-  <si>
     <t>DKI</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
     <t>HAN</t>
   </si>
   <si>
+    <t>KAL</t>
+  </si>
+  <si>
     <t>KIE</t>
   </si>
   <si>
@@ -56,33 +56,33 @@
     <t>RHH</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>HN_WF</t>
+  </si>
+  <si>
     <t>HN_NF</t>
   </si>
   <si>
-    <t>HN_WF</t>
+    <t>HN_WF_D</t>
   </si>
   <si>
     <t>LN_NF</t>
   </si>
   <si>
-    <t>HN_WF_D</t>
-  </si>
-  <si>
     <t>LN_WF</t>
   </si>
   <si>
@@ -95,13 +95,121 @@
     <t>3rd nitrogen application</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
     <t xml:space="preserve">1st nitrogen application </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>others</t>
+    <t>2016-03-12</t>
+  </si>
+  <si>
+    <t>2016-05-04</t>
+  </si>
+  <si>
+    <t>2016-05-21</t>
+  </si>
+  <si>
+    <t>2017-03-10</t>
+  </si>
+  <si>
+    <t>2017-03-26</t>
+  </si>
+  <si>
+    <t>2017-03-17</t>
+  </si>
+  <si>
+    <t>2019-03-27</t>
+  </si>
+  <si>
+    <t>2019-04-04</t>
+  </si>
+  <si>
+    <t>2019-04-20</t>
+  </si>
+  <si>
+    <t>2019-06-07</t>
+  </si>
+  <si>
+    <t>2015-03-07</t>
+  </si>
+  <si>
+    <t>2015-04-15</t>
+  </si>
+  <si>
+    <t>2015-05-23</t>
+  </si>
+  <si>
+    <t>2016-03-13</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
+    <t>2016-05-25</t>
+  </si>
+  <si>
+    <t>2018-03-17</t>
+  </si>
+  <si>
+    <t>2018-04-25</t>
+  </si>
+  <si>
+    <t>2018-05-19</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2016-04-29</t>
+  </si>
+  <si>
+    <t>2016-05-20</t>
+  </si>
+  <si>
+    <t>2016-04-13</t>
+  </si>
+  <si>
+    <t>2017-03-25</t>
+  </si>
+  <si>
+    <t>2017-05-27</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-03-24</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
+    <t>2018-04-18</t>
+  </si>
+  <si>
+    <t>2018-05-09</t>
+  </si>
+  <si>
+    <t>2018-04-06</t>
+  </si>
+  <si>
+    <t>2019-04-26</t>
+  </si>
+  <si>
+    <t>2019-06-08</t>
+  </si>
+  <si>
+    <t>2019-03-29</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
   </si>
   <si>
     <t>2015-03-14</t>
@@ -122,117 +230,9 @@
     <t>2016-05-29</t>
   </si>
   <si>
-    <t>2017-03-26</t>
-  </si>
-  <si>
     <t>2017-04-21</t>
   </si>
   <si>
-    <t>2017-05-31</t>
-  </si>
-  <si>
-    <t>2016-03-12</t>
-  </si>
-  <si>
-    <t>2016-05-04</t>
-  </si>
-  <si>
-    <t>2016-05-21</t>
-  </si>
-  <si>
-    <t>2017-03-10</t>
-  </si>
-  <si>
-    <t>2017-03-17</t>
-  </si>
-  <si>
-    <t>2019-03-27</t>
-  </si>
-  <si>
-    <t>2019-04-04</t>
-  </si>
-  <si>
-    <t>2019-04-20</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>2015-03-07</t>
-  </si>
-  <si>
-    <t>2015-04-15</t>
-  </si>
-  <si>
-    <t>2015-05-23</t>
-  </si>
-  <si>
-    <t>2016-03-13</t>
-  </si>
-  <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
-    <t>2016-05-25</t>
-  </si>
-  <si>
-    <t>2018-03-17</t>
-  </si>
-  <si>
-    <t>2018-04-25</t>
-  </si>
-  <si>
-    <t>2018-05-19</t>
-  </si>
-  <si>
-    <t>2015-03-15</t>
-  </si>
-  <si>
-    <t>2016-03-31</t>
-  </si>
-  <si>
-    <t>2016-04-29</t>
-  </si>
-  <si>
-    <t>2016-05-20</t>
-  </si>
-  <si>
-    <t>2016-04-13</t>
-  </si>
-  <si>
-    <t>2017-03-25</t>
-  </si>
-  <si>
-    <t>2017-05-27</t>
-  </si>
-  <si>
-    <t>2017-03-24</t>
-  </si>
-  <si>
-    <t>2017-03-30</t>
-  </si>
-  <si>
-    <t>2018-04-18</t>
-  </si>
-  <si>
-    <t>2018-05-09</t>
-  </si>
-  <si>
-    <t>2018-04-06</t>
-  </si>
-  <si>
-    <t>2019-04-26</t>
-  </si>
-  <si>
-    <t>2019-06-08</t>
-  </si>
-  <si>
-    <t>2019-03-29</t>
-  </si>
-  <si>
-    <t>2019-04-10</t>
-  </si>
-  <si>
     <t>2015-04-23</t>
   </si>
   <si>
@@ -323,141 +323,141 @@
     <t>2016-06-02</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>50kg/ha</t>
+  </si>
+  <si>
+    <t>70kg/ha</t>
+  </si>
+  <si>
+    <t>60kg/ha</t>
+  </si>
+  <si>
     <t>50 kg/ha</t>
   </si>
   <si>
+    <t>96 kg/ha</t>
+  </si>
+  <si>
+    <t>192 kg/ha</t>
+  </si>
+  <si>
+    <t>40kg/ha</t>
+  </si>
+  <si>
+    <t>30kg/ha</t>
+  </si>
+  <si>
+    <t>50 kg N/ha</t>
+  </si>
+  <si>
+    <t>32,5 kgN/ha</t>
+  </si>
+  <si>
+    <t>60 kg N / ha</t>
+  </si>
+  <si>
+    <t>27kg/ha MgO</t>
+  </si>
+  <si>
+    <t>22 kg/ha S</t>
+  </si>
+  <si>
+    <t>71 kg/ha</t>
+  </si>
+  <si>
+    <t>142 kg/ha</t>
+  </si>
+  <si>
+    <t>50 kgN/ha</t>
+  </si>
+  <si>
+    <t>43 kgN/ha</t>
+  </si>
+  <si>
+    <t>60 kgN/ha</t>
+  </si>
+  <si>
+    <t>50kg N/ha</t>
+  </si>
+  <si>
+    <t>49kg N/ha</t>
+  </si>
+  <si>
+    <t>25kg/ha (Mg)</t>
+  </si>
+  <si>
+    <t>48 kg/ha (P)</t>
+  </si>
+  <si>
+    <t>96 kg/ha (K)</t>
+  </si>
+  <si>
+    <t>39 kg N/ha</t>
+  </si>
+  <si>
     <t>45 kg/ha</t>
   </si>
   <si>
     <t>60 kg/ha</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>55 kg/ha</t>
   </si>
   <si>
     <t>25 kg/ha</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>50kg/ha</t>
-  </si>
-  <si>
-    <t>70kg/ha</t>
-  </si>
-  <si>
-    <t>60kg/ha</t>
-  </si>
-  <si>
-    <t>96 kg/ha</t>
-  </si>
-  <si>
-    <t>192 kg/ha</t>
-  </si>
-  <si>
-    <t>40kg/ha</t>
-  </si>
-  <si>
-    <t>30kg/ha</t>
-  </si>
-  <si>
-    <t>50 kg N/ha</t>
-  </si>
-  <si>
-    <t>32,5 kgN/ha</t>
-  </si>
-  <si>
-    <t>60 kg N / ha</t>
-  </si>
-  <si>
-    <t>27kg/ha MgO</t>
-  </si>
-  <si>
-    <t>22 kg/ha S</t>
-  </si>
-  <si>
-    <t>71 kg/ha</t>
-  </si>
-  <si>
-    <t>142 kg/ha</t>
-  </si>
-  <si>
-    <t>50 kgN/ha</t>
-  </si>
-  <si>
-    <t>43 kgN/ha</t>
-  </si>
-  <si>
-    <t>60 kgN/ha</t>
-  </si>
-  <si>
-    <t>50kg N/ha</t>
-  </si>
-  <si>
-    <t>49kg N/ha</t>
-  </si>
-  <si>
-    <t>25kg/ha (Mg)</t>
-  </si>
-  <si>
-    <t>48 kg/ha (P)</t>
-  </si>
-  <si>
-    <t>96 kg/ha (K)</t>
-  </si>
-  <si>
-    <t>39 kg N/ha</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -488,61 +488,61 @@
     <t>70</t>
   </si>
   <si>
+    <t>KAS</t>
+  </si>
+  <si>
+    <t>Alzon 40 + 5 S</t>
+  </si>
+  <si>
+    <t>Bittersalz</t>
+  </si>
+  <si>
+    <t>YaraVera Amiplus</t>
+  </si>
+  <si>
+    <t>Kieserit</t>
+  </si>
+  <si>
+    <t>Yara Vera Ami Plus</t>
+  </si>
+  <si>
+    <t>KAS 27</t>
+  </si>
+  <si>
+    <t>eigntl.50kg/ha</t>
+  </si>
+  <si>
+    <t>eigntl.40kg/ha</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Keserit Mg25%</t>
+  </si>
+  <si>
+    <t>P-Dünger</t>
+  </si>
+  <si>
+    <t>K-Dünger</t>
+  </si>
+  <si>
+    <t>Kierserit 25/20</t>
+  </si>
+  <si>
+    <t>PK 12/24</t>
+  </si>
+  <si>
+    <t>P/K 12/24</t>
+  </si>
+  <si>
     <t>N-Düngung KAS</t>
-  </si>
-  <si>
-    <t>KAS</t>
-  </si>
-  <si>
-    <t>Alzon 40 + 5 S</t>
-  </si>
-  <si>
-    <t>Bittersalz</t>
-  </si>
-  <si>
-    <t>YaraVera Amiplus</t>
-  </si>
-  <si>
-    <t>Kieserit</t>
-  </si>
-  <si>
-    <t>Yara Vera Ami Plus</t>
-  </si>
-  <si>
-    <t>KAS 27</t>
-  </si>
-  <si>
-    <t>eigntl.50kg/ha</t>
-  </si>
-  <si>
-    <t>eigntl.40kg/ha</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Keserit Mg25%</t>
-  </si>
-  <si>
-    <t>P-Dünger</t>
-  </si>
-  <si>
-    <t>K-Dünger</t>
-  </si>
-  <si>
-    <t>Kierserit 25/20</t>
-  </si>
-  <si>
-    <t>PK 12/24</t>
-  </si>
-  <si>
-    <t>P/K 12/24</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -662,7 +662,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>104</v>
@@ -685,13 +685,13 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
@@ -702,19 +702,19 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -725,19 +725,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -745,19 +745,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
         <v>158</v>
@@ -768,22 +768,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
@@ -791,22 +791,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
@@ -814,22 +814,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -837,22 +837,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -860,22 +860,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -883,30 +883,30 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -915,7 +915,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -938,10 +938,10 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
         <v>158</v>
@@ -949,10 +949,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -961,7 +961,7 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -972,88 +972,88 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
         <v>103</v>
@@ -1064,22 +1064,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
         <v>158</v>
@@ -1087,19 +1087,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
         <v>105</v>
@@ -1110,22 +1110,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
         <v>158</v>
@@ -1133,22 +1133,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>158</v>
@@ -1156,22 +1156,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
         <v>158</v>
@@ -1179,71 +1179,71 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
@@ -1251,22 +1251,22 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
@@ -1274,22 +1274,22 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
@@ -1297,22 +1297,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33">
@@ -1343,22 +1343,22 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34">
@@ -1366,22 +1366,22 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35">
@@ -1389,22 +1389,22 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36">
@@ -1412,22 +1412,22 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37">
@@ -1435,22 +1435,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
@@ -1458,19 +1458,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
         <v>164</v>
@@ -1481,22 +1481,22 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
@@ -1504,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
         <v>47</v>
@@ -1519,191 +1519,191 @@
         <v>115</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
         <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
         <v>116</v>
       </c>
       <c r="G48" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49">
@@ -1711,22 +1711,22 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50">
@@ -1734,22 +1734,22 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
         <v>117</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51">
@@ -1757,13 +1757,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
@@ -1772,7 +1772,7 @@
         <v>118</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52">
@@ -1780,22 +1780,22 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53">
@@ -1803,22 +1803,22 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54">
@@ -1826,22 +1826,22 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55">
@@ -1849,22 +1849,22 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -1872,22 +1872,22 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -1895,22 +1895,22 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
         <v>53</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G57" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -1918,22 +1918,22 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59">
@@ -1941,22 +1941,22 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60">
@@ -1964,22 +1964,22 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61">
@@ -1987,22 +1987,22 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G61" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62">
@@ -2010,22 +2010,22 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63">
@@ -2033,22 +2033,22 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G63" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
@@ -2056,22 +2056,22 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G64" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65">
@@ -2079,22 +2079,22 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
         <v>111</v>
       </c>
       <c r="G65" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66">
@@ -2102,22 +2102,22 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
@@ -2125,22 +2125,22 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68">
@@ -2148,22 +2148,22 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69">
@@ -2171,22 +2171,22 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F69" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G69" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70">
@@ -2194,22 +2194,22 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G70" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71">
@@ -2217,22 +2217,22 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F71" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G71" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72">
@@ -2240,22 +2240,22 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73">
@@ -2263,22 +2263,22 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G73" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74">
@@ -2286,22 +2286,22 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G74" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75">
@@ -2309,30 +2309,30 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G75" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -2341,64 +2341,64 @@
         <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G76" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G77" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -2407,21 +2407,21 @@
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F79" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G79" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -2430,21 +2430,21 @@
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F80" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G80" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -2453,1071 +2453,1071 @@
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F81" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G81" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G82" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F83" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G83" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F84" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G85" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G86" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F87" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G87" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G88" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G89" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G90" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G92" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="G93" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G94" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G95" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G96" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G99" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="G100" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G102" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F103" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G104" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F105" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G105" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="G106" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F107" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G107" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E108" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G108" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G109" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G110" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F111" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="G111" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="G112" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G113" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E114" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G114" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E115" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E116" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G116" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G117" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G119" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F120" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F121" t="s">
         <v>138</v>
       </c>
       <c r="G121" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E122" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F122" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G122" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G123" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G124" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G125" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F126" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F127" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G127" t="s">
         <v>175</v>
@@ -3525,22 +3525,22 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G128" t="s">
         <v>175</v>
@@ -3548,91 +3548,91 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F130" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G130" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F131" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G131" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G132" t="s">
         <v>175</v>
@@ -3643,22 +3643,22 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F133" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G133" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134">
@@ -3666,22 +3666,22 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F134" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G134" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135">
@@ -3689,22 +3689,22 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F135" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="G135" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136">
@@ -3712,22 +3712,22 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G136" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137">
@@ -3735,22 +3735,22 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F137" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G137" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138">
@@ -3758,22 +3758,22 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E138" t="s">
         <v>68</v>
       </c>
       <c r="F138" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G138" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139">
@@ -3781,22 +3781,22 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F139" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G139" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140">
@@ -3807,19 +3807,19 @@
         <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E140" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F140" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="G140" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141">
@@ -3830,19 +3830,19 @@
         <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E141" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F141" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G141" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142">
@@ -3850,22 +3850,22 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F142" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G142" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143">
@@ -3873,22 +3873,22 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E143" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F143" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G143" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144">
@@ -3896,16 +3896,16 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F144" t="s">
         <v>145</v>
@@ -3919,19 +3919,19 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
         <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G145" t="s">
         <v>176</v>
@@ -3942,22 +3942,22 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F146" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G146" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147">
@@ -3965,22 +3965,22 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E147" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F147" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G147" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148">
@@ -3988,22 +3988,22 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F148" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="G148" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149">
@@ -4011,22 +4011,22 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F149" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="G149" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150">
@@ -4034,22 +4034,22 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F150" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G150" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151">
@@ -4057,19 +4057,19 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
         <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F151" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G151" t="s">
         <v>176</v>
@@ -4080,22 +4080,22 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F152" t="s">
         <v>147</v>
       </c>
       <c r="G152" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153">
@@ -4103,22 +4103,22 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E153" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F153" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G153" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154">
@@ -4126,19 +4126,19 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G154" t="s">
         <v>176</v>
@@ -4149,19 +4149,19 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F155" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G155" t="s">
         <v>176</v>
@@ -4172,22 +4172,22 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E156" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F156" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G156" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157">
@@ -4195,22 +4195,22 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
         <v>29</v>
       </c>
       <c r="E157" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="G157" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158">
@@ -4218,22 +4218,22 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E158" t="s">
         <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G158" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159">
@@ -4241,22 +4241,22 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D159" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E159" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F159" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="G159" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160">
@@ -4264,22 +4264,22 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
         <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F160" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161">
@@ -4287,10 +4287,10 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
         <v>25</v>
@@ -4299,10 +4299,10 @@
         <v>73</v>
       </c>
       <c r="F161" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162">
@@ -4310,10 +4310,10 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
         <v>26</v>
@@ -4322,10 +4322,10 @@
         <v>74</v>
       </c>
       <c r="F162" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163">
@@ -4333,22 +4333,22 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F163" t="s">
         <v>148</v>
       </c>
       <c r="G163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
@@ -4356,22 +4356,22 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
         <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F164" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165">
@@ -4379,10 +4379,10 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
         <v>25</v>
@@ -4391,10 +4391,10 @@
         <v>73</v>
       </c>
       <c r="F165" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166">
@@ -4402,10 +4402,10 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D166" t="s">
         <v>26</v>
@@ -4414,10 +4414,10 @@
         <v>74</v>
       </c>
       <c r="F166" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167">
@@ -4425,22 +4425,22 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F167" t="s">
         <v>148</v>
       </c>
       <c r="G167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168">
@@ -4448,22 +4448,22 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
         <v>24</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F168" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169">
@@ -4471,10 +4471,10 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
         <v>25</v>
@@ -4486,7 +4486,7 @@
         <v>149</v>
       </c>
       <c r="G169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170">
@@ -4494,22 +4494,22 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F170" t="s">
         <v>148</v>
       </c>
       <c r="G170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171">
@@ -4517,10 +4517,10 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
         <v>24</v>
@@ -4529,10 +4529,10 @@
         <v>75</v>
       </c>
       <c r="F171" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G171" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172">
@@ -4540,22 +4540,22 @@
         <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
         <v>25</v>
       </c>
       <c r="E172" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F172" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173">
@@ -4563,10 +4563,10 @@
         <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
         <v>26</v>
@@ -4575,10 +4575,10 @@
         <v>76</v>
       </c>
       <c r="F173" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G173" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174">
@@ -4586,22 +4586,22 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E174" t="s">
         <v>77</v>
       </c>
       <c r="F174" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175">
@@ -4609,22 +4609,22 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E175" t="s">
         <v>78</v>
       </c>
       <c r="F175" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G175" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176">
@@ -4632,10 +4632,10 @@
         <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D176" t="s">
         <v>24</v>
@@ -4644,10 +4644,10 @@
         <v>75</v>
       </c>
       <c r="F176" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177">
@@ -4655,22 +4655,22 @@
         <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
         <v>25</v>
       </c>
       <c r="E177" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178">
@@ -4678,10 +4678,10 @@
         <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D178" t="s">
         <v>26</v>
@@ -4690,10 +4690,10 @@
         <v>76</v>
       </c>
       <c r="F178" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179">
@@ -4701,22 +4701,22 @@
         <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E179" t="s">
         <v>77</v>
       </c>
       <c r="F179" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180">
@@ -4724,22 +4724,22 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E180" t="s">
         <v>78</v>
       </c>
       <c r="F180" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G180" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181">
@@ -4747,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D181" t="s">
         <v>24</v>
@@ -4759,10 +4759,10 @@
         <v>75</v>
       </c>
       <c r="F181" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G181" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182">
@@ -4770,22 +4770,22 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D182" t="s">
         <v>25</v>
       </c>
       <c r="E182" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F182" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183">
@@ -4793,13 +4793,13 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183" t="s">
         <v>79</v>
@@ -4816,22 +4816,22 @@
         <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E184" t="s">
         <v>77</v>
       </c>
       <c r="F184" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185">
@@ -4839,22 +4839,22 @@
         <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E185" t="s">
         <v>78</v>
       </c>
       <c r="F185" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186">
@@ -4862,10 +4862,10 @@
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
         <v>24</v>
@@ -4874,10 +4874,10 @@
         <v>80</v>
       </c>
       <c r="F186" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G186" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187">
@@ -4885,10 +4885,10 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
         <v>25</v>
@@ -4897,10 +4897,10 @@
         <v>81</v>
       </c>
       <c r="F187" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188">
@@ -4908,10 +4908,10 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
         <v>26</v>
@@ -4920,10 +4920,10 @@
         <v>82</v>
       </c>
       <c r="F188" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G188" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189">
@@ -4931,22 +4931,22 @@
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E189" t="s">
         <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190">
@@ -4954,22 +4954,22 @@
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E190" t="s">
         <v>84</v>
       </c>
       <c r="F190" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G190" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191">
@@ -4977,22 +4977,22 @@
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E191" t="s">
         <v>85</v>
       </c>
       <c r="F191" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G191" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192">
@@ -5000,10 +5000,10 @@
         <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D192" t="s">
         <v>24</v>
@@ -5012,10 +5012,10 @@
         <v>80</v>
       </c>
       <c r="F192" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G192" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193">
@@ -5023,10 +5023,10 @@
         <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
         <v>25</v>
@@ -5035,10 +5035,10 @@
         <v>81</v>
       </c>
       <c r="F193" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G193" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194">
@@ -5046,10 +5046,10 @@
         <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
         <v>26</v>
@@ -5058,10 +5058,10 @@
         <v>82</v>
       </c>
       <c r="F194" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G194" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195">
@@ -5069,22 +5069,22 @@
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E195" t="s">
         <v>83</v>
       </c>
       <c r="F195" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G195" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196">
@@ -5092,22 +5092,22 @@
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E196" t="s">
         <v>84</v>
       </c>
       <c r="F196" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G196" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197">
@@ -5115,22 +5115,22 @@
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E197" t="s">
         <v>85</v>
       </c>
       <c r="F197" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G197" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198">
@@ -5138,10 +5138,10 @@
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
         <v>24</v>
@@ -5150,10 +5150,10 @@
         <v>80</v>
       </c>
       <c r="F198" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G198" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="199">
@@ -5161,10 +5161,10 @@
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
         <v>25</v>
@@ -5176,7 +5176,7 @@
         <v>151</v>
       </c>
       <c r="G199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="200">
@@ -5184,22 +5184,22 @@
         <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E200" t="s">
         <v>83</v>
       </c>
       <c r="F200" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G200" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201">
@@ -5207,22 +5207,22 @@
         <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E201" t="s">
         <v>84</v>
       </c>
       <c r="F201" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G201" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="202">
@@ -5230,22 +5230,22 @@
         <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E202" t="s">
         <v>85</v>
       </c>
       <c r="F202" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G202" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203">
@@ -5256,7 +5256,7 @@
         <v>18</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D203" t="s">
         <v>24</v>
@@ -5265,10 +5265,10 @@
         <v>86</v>
       </c>
       <c r="F203" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204">
@@ -5279,7 +5279,7 @@
         <v>18</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D204" t="s">
         <v>25</v>
@@ -5288,10 +5288,10 @@
         <v>87</v>
       </c>
       <c r="F204" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205">
@@ -5302,7 +5302,7 @@
         <v>18</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D205" t="s">
         <v>26</v>
@@ -5311,10 +5311,10 @@
         <v>88</v>
       </c>
       <c r="F205" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G205" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206">
@@ -5325,10 +5325,10 @@
         <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E206" t="s">
         <v>89</v>
@@ -5337,7 +5337,7 @@
         <v>148</v>
       </c>
       <c r="G206" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207">
@@ -5348,19 +5348,19 @@
         <v>18</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E207" t="s">
         <v>90</v>
       </c>
       <c r="F207" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G207" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="208">
@@ -5371,7 +5371,7 @@
         <v>18</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D208" t="s">
         <v>24</v>
@@ -5380,10 +5380,10 @@
         <v>86</v>
       </c>
       <c r="F208" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G208" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D209" t="s">
         <v>25</v>
@@ -5403,10 +5403,10 @@
         <v>87</v>
       </c>
       <c r="F209" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G209" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210">
@@ -5417,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D210" t="s">
         <v>26</v>
@@ -5426,10 +5426,10 @@
         <v>88</v>
       </c>
       <c r="F210" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G210" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211">
@@ -5440,10 +5440,10 @@
         <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E211" t="s">
         <v>89</v>
@@ -5452,7 +5452,7 @@
         <v>148</v>
       </c>
       <c r="G211" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="212">
@@ -5463,19 +5463,19 @@
         <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E212" t="s">
         <v>90</v>
       </c>
       <c r="F212" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G212" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213">
@@ -5486,7 +5486,7 @@
         <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D213" t="s">
         <v>24</v>
@@ -5495,10 +5495,10 @@
         <v>86</v>
       </c>
       <c r="F213" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G213" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="214">
@@ -5509,7 +5509,7 @@
         <v>18</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
         <v>25</v>
@@ -5521,7 +5521,7 @@
         <v>152</v>
       </c>
       <c r="G214" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215">
@@ -5532,10 +5532,10 @@
         <v>18</v>
       </c>
       <c r="C215" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E215" t="s">
         <v>89</v>
@@ -5544,7 +5544,7 @@
         <v>148</v>
       </c>
       <c r="G215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216">
@@ -5555,19 +5555,19 @@
         <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E216" t="s">
         <v>90</v>
       </c>
       <c r="F216" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G216" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217">
@@ -5587,10 +5587,10 @@
         <v>86</v>
       </c>
       <c r="F217" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G217" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="218">
@@ -5613,7 +5613,7 @@
         <v>152</v>
       </c>
       <c r="G218" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="219">
@@ -5627,7 +5627,7 @@
         <v>23</v>
       </c>
       <c r="D219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E219" t="s">
         <v>89</v>
@@ -5636,7 +5636,7 @@
         <v>148</v>
       </c>
       <c r="G219" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="220">
@@ -5650,16 +5650,16 @@
         <v>23</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E220" t="s">
         <v>90</v>
       </c>
       <c r="F220" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G220" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="221">
@@ -5667,10 +5667,10 @@
         <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D221" t="s">
         <v>24</v>
@@ -5679,10 +5679,10 @@
         <v>91</v>
       </c>
       <c r="F221" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G221" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="222">
@@ -5690,10 +5690,10 @@
         <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D222" t="s">
         <v>25</v>
@@ -5702,10 +5702,10 @@
         <v>92</v>
       </c>
       <c r="F222" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G222" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="223">
@@ -5713,10 +5713,10 @@
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D223" t="s">
         <v>26</v>
@@ -5725,10 +5725,10 @@
         <v>93</v>
       </c>
       <c r="F223" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G223" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="224">
@@ -5736,22 +5736,22 @@
         <v>11</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E224" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G224" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="225">
@@ -5759,22 +5759,22 @@
         <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E225" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F225" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G225" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226">
@@ -5782,10 +5782,10 @@
         <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
         <v>24</v>
@@ -5794,10 +5794,10 @@
         <v>91</v>
       </c>
       <c r="F226" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G226" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="227">
@@ -5805,10 +5805,10 @@
         <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D227" t="s">
         <v>25</v>
@@ -5817,10 +5817,10 @@
         <v>92</v>
       </c>
       <c r="F227" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G227" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="228">
@@ -5828,10 +5828,10 @@
         <v>11</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D228" t="s">
         <v>26</v>
@@ -5840,10 +5840,10 @@
         <v>93</v>
       </c>
       <c r="F228" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G228" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="229">
@@ -5851,22 +5851,22 @@
         <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E229" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F229" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G229" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="230">
@@ -5874,22 +5874,22 @@
         <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F230" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G230" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="231">
@@ -5897,10 +5897,10 @@
         <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C231" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
         <v>24</v>
@@ -5909,10 +5909,10 @@
         <v>91</v>
       </c>
       <c r="F231" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G231" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="232">
@@ -5920,10 +5920,10 @@
         <v>11</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D232" t="s">
         <v>25</v>
@@ -5935,7 +5935,7 @@
         <v>152</v>
       </c>
       <c r="G232" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="233">
@@ -5943,22 +5943,22 @@
         <v>11</v>
       </c>
       <c r="B233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E233" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F233" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G233" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="234">
@@ -5966,22 +5966,22 @@
         <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F234" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G234" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="235">
@@ -5989,7 +5989,7 @@
         <v>11</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
         <v>23</v>
@@ -6001,10 +6001,10 @@
         <v>91</v>
       </c>
       <c r="F235" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G235" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="236">
@@ -6012,7 +6012,7 @@
         <v>11</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C236" t="s">
         <v>23</v>
@@ -6027,7 +6027,7 @@
         <v>152</v>
       </c>
       <c r="G236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="237">
@@ -6035,22 +6035,22 @@
         <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C237" t="s">
         <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E237" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F237" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="238">
@@ -6058,22 +6058,22 @@
         <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C238" t="s">
         <v>23</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E238" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F238" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G238" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="239">
@@ -6081,19 +6081,19 @@
         <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
         <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G239" t="s">
         <v>178</v>
@@ -6104,10 +6104,10 @@
         <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D240" t="s">
         <v>25</v>
@@ -6127,19 +6127,19 @@
         <v>12</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D241" t="s">
         <v>24</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G241" t="s">
         <v>178</v>
@@ -6150,10 +6150,10 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D242" t="s">
         <v>25</v>
@@ -6173,10 +6173,10 @@
         <v>12</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D243" t="s">
         <v>24</v>
@@ -6196,16 +6196,16 @@
         <v>12</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D244" t="s">
         <v>25</v>
       </c>
       <c r="E244" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F244" t="s">
         <v>153</v>
@@ -6219,16 +6219,16 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D245" t="s">
         <v>26</v>
       </c>
       <c r="E245" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F245" t="s">
         <v>153</v>
@@ -6242,10 +6242,10 @@
         <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D246" t="s">
         <v>24</v>
@@ -6265,16 +6265,16 @@
         <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D247" t="s">
         <v>25</v>
       </c>
       <c r="E247" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F247" t="s">
         <v>153</v>
@@ -6288,16 +6288,16 @@
         <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D248" t="s">
         <v>26</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F248" t="s">
         <v>153</v>
@@ -6311,10 +6311,10 @@
         <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D249" t="s">
         <v>24</v>
@@ -6334,7 +6334,7 @@
         <v>12</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C250" t="s">
         <v>23</v>
@@ -6357,10 +6357,10 @@
         <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D251" t="s">
         <v>24</v>
@@ -6380,10 +6380,10 @@
         <v>12</v>
       </c>
       <c r="B252" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D252" t="s">
         <v>25</v>
@@ -6403,10 +6403,10 @@
         <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D253" t="s">
         <v>26</v>
@@ -6426,10 +6426,10 @@
         <v>12</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D254" t="s">
         <v>24</v>
@@ -6449,10 +6449,10 @@
         <v>12</v>
       </c>
       <c r="B255" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D255" t="s">
         <v>25</v>
@@ -6472,10 +6472,10 @@
         <v>12</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
         <v>26</v>
@@ -6495,10 +6495,10 @@
         <v>13</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D257" t="s">
         <v>24</v>
@@ -6507,7 +6507,7 @@
         <v>98</v>
       </c>
       <c r="F257" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G257" t="s">
         <v>179</v>
@@ -6518,10 +6518,10 @@
         <v>13</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D258" t="s">
         <v>25</v>
@@ -6541,10 +6541,10 @@
         <v>13</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D259" t="s">
         <v>24</v>
@@ -6553,7 +6553,7 @@
         <v>98</v>
       </c>
       <c r="F259" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G259" t="s">
         <v>179</v>
@@ -6564,10 +6564,10 @@
         <v>13</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D260" t="s">
         <v>25</v>
@@ -6587,10 +6587,10 @@
         <v>13</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
         <v>26</v>
@@ -6599,7 +6599,7 @@
         <v>100</v>
       </c>
       <c r="F261" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G261" t="s">
         <v>179</v>
@@ -6610,10 +6610,10 @@
         <v>13</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C262" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D262" t="s">
         <v>24</v>
@@ -6622,7 +6622,7 @@
         <v>98</v>
       </c>
       <c r="F262" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G262" t="s">
         <v>179</v>
@@ -6633,10 +6633,10 @@
         <v>13</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C263" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
         <v>25</v>
@@ -6645,7 +6645,7 @@
         <v>99</v>
       </c>
       <c r="F263" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G263" t="s">
         <v>179</v>
@@ -6656,10 +6656,10 @@
         <v>13</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D264" t="s">
         <v>24</v>
@@ -6668,7 +6668,7 @@
         <v>101</v>
       </c>
       <c r="F264" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G264" t="s">
         <v>179</v>
@@ -6679,16 +6679,16 @@
         <v>13</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D265" t="s">
         <v>25</v>
       </c>
       <c r="E265" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F265" t="s">
         <v>157</v>
@@ -6702,10 +6702,10 @@
         <v>13</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
         <v>26</v>
@@ -6714,7 +6714,7 @@
         <v>102</v>
       </c>
       <c r="F266" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G266" t="s">
         <v>179</v>
@@ -6725,10 +6725,10 @@
         <v>13</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D267" t="s">
         <v>24</v>
@@ -6737,7 +6737,7 @@
         <v>101</v>
       </c>
       <c r="F267" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G267" t="s">
         <v>179</v>
@@ -6748,16 +6748,16 @@
         <v>13</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D268" t="s">
         <v>25</v>
       </c>
       <c r="E268" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F268" t="s">
         <v>157</v>
@@ -6771,10 +6771,10 @@
         <v>13</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D269" t="s">
         <v>26</v>
@@ -6783,7 +6783,7 @@
         <v>102</v>
       </c>
       <c r="F269" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G269" t="s">
         <v>179</v>
@@ -6794,10 +6794,10 @@
         <v>13</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
         <v>24</v>
@@ -6806,7 +6806,7 @@
         <v>101</v>
       </c>
       <c r="F270" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G270" t="s">
         <v>179</v>
@@ -6817,16 +6817,16 @@
         <v>13</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
         <v>25</v>
       </c>
       <c r="E271" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F271" t="s">
         <v>151</v>

--- a/output/fertilizer.xlsx
+++ b/output/fertilizer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="195">
   <si>
     <t>Location</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Notice</t>
   </si>
   <si>
-    <t>DKI</t>
-  </si>
-  <si>
     <t>GGE</t>
   </si>
   <si>
@@ -56,34 +53,58 @@
     <t>RHH</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2017</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>HN_WF</t>
-  </si>
-  <si>
-    <t>HN_NF</t>
-  </si>
-  <si>
-    <t>HN_WF_D</t>
-  </si>
-  <si>
-    <t>LN_NF</t>
-  </si>
-  <si>
-    <t>LN_WF</t>
+    <t>HN_NF_IR</t>
+  </si>
+  <si>
+    <t>HN_WF_IR</t>
+  </si>
+  <si>
+    <t>HN_WF_RF</t>
+  </si>
+  <si>
+    <t>LN_NF_IR</t>
+  </si>
+  <si>
+    <t>HN_NF_RF</t>
+  </si>
+  <si>
+    <t>LN_NF_RF</t>
+  </si>
+  <si>
+    <t>LN_WF_IR</t>
+  </si>
+  <si>
+    <t>HN_NF_IR_IR</t>
+  </si>
+  <si>
+    <t>HN_WF_IR_IR</t>
+  </si>
+  <si>
+    <t>LN_NF_IR_IR</t>
+  </si>
+  <si>
+    <t>LN_WF_IR_IR</t>
+  </si>
+  <si>
+    <t>LN_WF_RF</t>
+  </si>
+  <si>
+    <t>HN_WF_RO</t>
   </si>
   <si>
     <t>1st nitrogen application</t>
@@ -95,15 +116,144 @@
     <t>3rd nitrogen application</t>
   </si>
   <si>
+    <t>others</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
     <t xml:space="preserve">1st nitrogen application </t>
   </si>
   <si>
+    <t>2015-03-07</t>
+  </si>
+  <si>
+    <t>2015-04-15</t>
+  </si>
+  <si>
+    <t>2015-05-23</t>
+  </si>
+  <si>
+    <t>2016-03-13</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
+    <t>2016-05-25</t>
+  </si>
+  <si>
+    <t>2018-03-17</t>
+  </si>
+  <si>
+    <t>2018-04-25</t>
+  </si>
+  <si>
+    <t>2018-05-19</t>
+  </si>
+  <si>
+    <t>2019-02-27</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>2019-05-09</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2016-04-29</t>
+  </si>
+  <si>
+    <t>2016-05-20</t>
+  </si>
+  <si>
+    <t>2016-04-13</t>
+  </si>
+  <si>
+    <t>2017-03-25</t>
+  </si>
+  <si>
+    <t>2017-05-27</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-03-24</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
+    <t>2018-04-18</t>
+  </si>
+  <si>
+    <t>2018-05-09</t>
+  </si>
+  <si>
+    <t>2018-04-06</t>
+  </si>
+  <si>
+    <t>2019-04-04</t>
+  </si>
+  <si>
+    <t>2019-04-26</t>
+  </si>
+  <si>
+    <t>2019-06-08</t>
+  </si>
+  <si>
+    <t>2019-03-29</t>
+  </si>
+  <si>
+    <t>2015-03-14</t>
+  </si>
+  <si>
+    <t>2015-04-17</t>
+  </si>
+  <si>
+    <t>2015-05-29</t>
+  </si>
+  <si>
+    <t>2016-03-19</t>
+  </si>
+  <si>
+    <t>2016-04-08</t>
+  </si>
+  <si>
+    <t>2016-05-29</t>
+  </si>
+  <si>
+    <t>2017-03-26</t>
+  </si>
+  <si>
+    <t>2017-04-21</t>
+  </si>
+  <si>
+    <t>2015-04-23</t>
+  </si>
+  <si>
+    <t>2015-06-10</t>
+  </si>
+  <si>
+    <t>2016-03-11</t>
+  </si>
+  <si>
+    <t>2016-06-03</t>
+  </si>
+  <si>
+    <t>2016-05-06</t>
+  </si>
+  <si>
+    <t>2016-06-17</t>
+  </si>
+  <si>
     <t>2016-03-12</t>
   </si>
   <si>
@@ -113,189 +263,66 @@
     <t>2016-05-21</t>
   </si>
   <si>
+    <t>2016-03-26</t>
+  </si>
+  <si>
+    <t>2017-03-16</t>
+  </si>
+  <si>
+    <t>2017-04-20</t>
+  </si>
+  <si>
+    <t>2017-05-26</t>
+  </si>
+  <si>
+    <t>2017-03-18</t>
+  </si>
+  <si>
+    <t>2017-05-13</t>
+  </si>
+  <si>
+    <t>2017-06-16</t>
+  </si>
+  <si>
     <t>2017-03-10</t>
   </si>
   <si>
-    <t>2017-03-26</t>
-  </si>
-  <si>
     <t>2017-03-17</t>
   </si>
   <si>
+    <t>2018-03-21</t>
+  </si>
+  <si>
+    <t>2018-04-29</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2018-03-29</t>
+  </si>
+  <si>
+    <t>2018-05-06</t>
+  </si>
+  <si>
+    <t>2019-03-28</t>
+  </si>
+  <si>
+    <t>2019-04-12</t>
+  </si>
+  <si>
+    <t>2019-05-30</t>
+  </si>
+  <si>
+    <t>2019-04-20</t>
+  </si>
+  <si>
+    <t>2019-06-07</t>
+  </si>
+  <si>
     <t>2019-03-27</t>
   </si>
   <si>
-    <t>2019-04-04</t>
-  </si>
-  <si>
-    <t>2019-04-20</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>2015-03-07</t>
-  </si>
-  <si>
-    <t>2015-04-15</t>
-  </si>
-  <si>
-    <t>2015-05-23</t>
-  </si>
-  <si>
-    <t>2016-03-13</t>
-  </si>
-  <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
-    <t>2016-05-25</t>
-  </si>
-  <si>
-    <t>2018-03-17</t>
-  </si>
-  <si>
-    <t>2018-04-25</t>
-  </si>
-  <si>
-    <t>2018-05-19</t>
-  </si>
-  <si>
-    <t>2015-03-15</t>
-  </si>
-  <si>
-    <t>2016-03-31</t>
-  </si>
-  <si>
-    <t>2016-04-29</t>
-  </si>
-  <si>
-    <t>2016-05-20</t>
-  </si>
-  <si>
-    <t>2016-04-13</t>
-  </si>
-  <si>
-    <t>2017-03-25</t>
-  </si>
-  <si>
-    <t>2017-05-27</t>
-  </si>
-  <si>
-    <t>2017-05-31</t>
-  </si>
-  <si>
-    <t>2017-03-24</t>
-  </si>
-  <si>
-    <t>2017-03-30</t>
-  </si>
-  <si>
-    <t>2018-04-18</t>
-  </si>
-  <si>
-    <t>2018-05-09</t>
-  </si>
-  <si>
-    <t>2018-04-06</t>
-  </si>
-  <si>
-    <t>2019-04-26</t>
-  </si>
-  <si>
-    <t>2019-06-08</t>
-  </si>
-  <si>
-    <t>2019-03-29</t>
-  </si>
-  <si>
-    <t>2019-04-10</t>
-  </si>
-  <si>
-    <t>2015-03-14</t>
-  </si>
-  <si>
-    <t>2015-04-17</t>
-  </si>
-  <si>
-    <t>2015-05-29</t>
-  </si>
-  <si>
-    <t>2016-03-19</t>
-  </si>
-  <si>
-    <t>2016-04-08</t>
-  </si>
-  <si>
-    <t>2016-05-29</t>
-  </si>
-  <si>
-    <t>2017-04-21</t>
-  </si>
-  <si>
-    <t>2015-04-23</t>
-  </si>
-  <si>
-    <t>2015-06-10</t>
-  </si>
-  <si>
-    <t>2016-03-11</t>
-  </si>
-  <si>
-    <t>2016-06-03</t>
-  </si>
-  <si>
-    <t>2016-05-06</t>
-  </si>
-  <si>
-    <t>2016-06-17</t>
-  </si>
-  <si>
-    <t>2016-03-26</t>
-  </si>
-  <si>
-    <t>2017-03-16</t>
-  </si>
-  <si>
-    <t>2017-04-20</t>
-  </si>
-  <si>
-    <t>2017-05-26</t>
-  </si>
-  <si>
-    <t>2017-03-18</t>
-  </si>
-  <si>
-    <t>2017-05-13</t>
-  </si>
-  <si>
-    <t>2017-06-16</t>
-  </si>
-  <si>
-    <t>2018-03-21</t>
-  </si>
-  <si>
-    <t>2018-04-29</t>
-  </si>
-  <si>
-    <t>2018-06-01</t>
-  </si>
-  <si>
-    <t>2018-03-29</t>
-  </si>
-  <si>
-    <t>2018-05-06</t>
-  </si>
-  <si>
-    <t>2019-03-28</t>
-  </si>
-  <si>
-    <t>2019-04-12</t>
-  </si>
-  <si>
-    <t>2019-05-30</t>
-  </si>
-  <si>
     <t>2015-05-15</t>
   </si>
   <si>
@@ -323,150 +350,162 @@
     <t>2016-06-02</t>
   </si>
   <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>2019-05-22</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
-    <t>60</t>
+    <t>192</t>
+  </si>
+  <si>
+    <t>50kg/ha</t>
+  </si>
+  <si>
+    <t>70kg/ha</t>
+  </si>
+  <si>
+    <t>60kg/ha</t>
+  </si>
+  <si>
+    <t>50 kg/ha</t>
+  </si>
+  <si>
+    <t>96 kg/ha</t>
+  </si>
+  <si>
+    <t>192 kg/ha</t>
+  </si>
+  <si>
+    <t>40kg/ha</t>
+  </si>
+  <si>
+    <t>30kg/ha</t>
+  </si>
+  <si>
+    <t>50 kg N/ha</t>
+  </si>
+  <si>
+    <t>32,5 kgN/ha</t>
+  </si>
+  <si>
+    <t>60 kg N / ha</t>
+  </si>
+  <si>
+    <t>27kg/ha MgO</t>
+  </si>
+  <si>
+    <t>22 kg/ha S</t>
+  </si>
+  <si>
+    <t>71 kg/ha</t>
+  </si>
+  <si>
+    <t>142 kg/ha</t>
+  </si>
+  <si>
+    <t>50 kgN/ha</t>
+  </si>
+  <si>
+    <t>43 kgN/ha</t>
+  </si>
+  <si>
+    <t>60 kgN/ha</t>
+  </si>
+  <si>
+    <t>50kg N/ha</t>
+  </si>
+  <si>
+    <t>49kg N/ha</t>
+  </si>
+  <si>
+    <t>25kg/ha (Mg)</t>
+  </si>
+  <si>
+    <t>48 kg/ha (P)</t>
+  </si>
+  <si>
+    <t>96 kg/ha (K)</t>
+  </si>
+  <si>
+    <t>39 kg N/ha</t>
+  </si>
+  <si>
+    <t>45 kg/ha</t>
+  </si>
+  <si>
+    <t>60 kg/ha</t>
+  </si>
+  <si>
+    <t>55 kg/ha</t>
+  </si>
+  <si>
+    <t>25 kg/ha</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>5 kg Bittersalz, 0.7 l Mangan, 0.3 l Kupfer</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>124</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>50kg/ha</t>
-  </si>
-  <si>
-    <t>70kg/ha</t>
-  </si>
-  <si>
-    <t>60kg/ha</t>
-  </si>
-  <si>
-    <t>50 kg/ha</t>
-  </si>
-  <si>
-    <t>96 kg/ha</t>
-  </si>
-  <si>
-    <t>192 kg/ha</t>
-  </si>
-  <si>
-    <t>40kg/ha</t>
-  </si>
-  <si>
-    <t>30kg/ha</t>
-  </si>
-  <si>
-    <t>50 kg N/ha</t>
-  </si>
-  <si>
-    <t>32,5 kgN/ha</t>
-  </si>
-  <si>
-    <t>60 kg N / ha</t>
-  </si>
-  <si>
-    <t>27kg/ha MgO</t>
-  </si>
-  <si>
-    <t>22 kg/ha S</t>
-  </si>
-  <si>
-    <t>71 kg/ha</t>
-  </si>
-  <si>
-    <t>142 kg/ha</t>
-  </si>
-  <si>
-    <t>50 kgN/ha</t>
-  </si>
-  <si>
-    <t>43 kgN/ha</t>
-  </si>
-  <si>
-    <t>60 kgN/ha</t>
-  </si>
-  <si>
-    <t>50kg N/ha</t>
-  </si>
-  <si>
-    <t>49kg N/ha</t>
-  </si>
-  <si>
-    <t>25kg/ha (Mg)</t>
-  </si>
-  <si>
-    <t>48 kg/ha (P)</t>
-  </si>
-  <si>
-    <t>96 kg/ha (K)</t>
-  </si>
-  <si>
-    <t>39 kg N/ha</t>
-  </si>
-  <si>
-    <t>45 kg/ha</t>
-  </si>
-  <si>
-    <t>60 kg/ha</t>
-  </si>
-  <si>
-    <t>55 kg/ha</t>
-  </si>
-  <si>
-    <t>25 kg/ha</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5 kg Bittersalz, 0.7 l Mangan, 0.3 l Kupfer</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -488,64 +527,70 @@
     <t>70</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>KAS</t>
   </si>
   <si>
+    <t>KAS 27</t>
+  </si>
+  <si>
+    <t>eigntl.50kg/ha</t>
+  </si>
+  <si>
+    <t>eigntl.40kg/ha</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Keserit Mg25%</t>
+  </si>
+  <si>
+    <t>P-Dünger</t>
+  </si>
+  <si>
+    <t>K-Dünger</t>
+  </si>
+  <si>
+    <t>Kierserit 25/20</t>
+  </si>
+  <si>
+    <t>Kieserit</t>
+  </si>
+  <si>
+    <t>PK 12/24</t>
+  </si>
+  <si>
+    <t>P/K 12/24</t>
+  </si>
+  <si>
+    <t>N-Düngung KAS</t>
+  </si>
+  <si>
+    <t>Bittersalz</t>
+  </si>
+  <si>
     <t>Alzon 40 + 5 S</t>
   </si>
   <si>
-    <t>Bittersalz</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>YaraVera Amiplus</t>
   </si>
   <si>
-    <t>Kieserit</t>
-  </si>
-  <si>
     <t>Yara Vera Ami Plus</t>
-  </si>
-  <si>
-    <t>KAS 27</t>
-  </si>
-  <si>
-    <t>eigntl.50kg/ha</t>
-  </si>
-  <si>
-    <t>eigntl.40kg/ha</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Keserit Mg25%</t>
-  </si>
-  <si>
-    <t>P-Dünger</t>
-  </si>
-  <si>
-    <t>K-Dünger</t>
-  </si>
-  <si>
-    <t>Kierserit 25/20</t>
-  </si>
-  <si>
-    <t>PK 12/24</t>
-  </si>
-  <si>
-    <t>P/K 12/24</t>
-  </si>
-  <si>
-    <t>N-Düngung KAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>CAN</t>
@@ -630,22 +675,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -653,22 +698,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -676,22 +721,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -699,22 +744,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -722,22 +767,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -745,22 +790,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -768,22 +813,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -791,22 +836,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -814,22 +859,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
@@ -837,22 +882,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
@@ -860,22 +905,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
@@ -883,1002 +928,1002 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
         <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
         <v>115</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
         <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
         <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G52" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G54" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
         <v>53</v>
@@ -1887,136 +1932,136 @@
         <v>115</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
         <v>53</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G59" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G60" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
         <v>53</v>
@@ -2025,136 +2070,136 @@
         <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
         <v>53</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="G64" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s">
         <v>118</v>
       </c>
       <c r="G66" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G67" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
         <v>53</v>
@@ -2163,533 +2208,533 @@
         <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
         <v>53</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G70" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G71" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G72" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G73" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
         <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G76" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F77" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G77" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G78" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G79" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F80" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G80" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
         <v>58</v>
       </c>
       <c r="F81" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G82" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G83" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G84" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F85" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G85" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F86" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G86" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
         <v>58</v>
       </c>
       <c r="F87" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G87" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F88" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G88" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F89" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G89" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G90" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G91" t="s">
         <v>173</v>
@@ -2697,160 +2742,160 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F92" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G92" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G93" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G94" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G95" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F96" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F97" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G97" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G98" t="s">
         <v>173</v>
@@ -2858,114 +2903,114 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G99" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G100" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G101" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E102" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F103" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G103" t="s">
         <v>173</v>
@@ -2973,137 +3018,137 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G104" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E105" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G105" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G106" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G107" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G108" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G109" t="s">
         <v>173</v>
@@ -3111,444 +3156,444 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G110" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G111" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E114" t="s">
         <v>62</v>
       </c>
       <c r="F114" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G114" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E115" t="s">
         <v>63</v>
       </c>
       <c r="F115" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G115" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E116" t="s">
         <v>64</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G116" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E117" t="s">
         <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G117" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G118" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G119" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E120" t="s">
         <v>62</v>
       </c>
       <c r="F120" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G120" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E121" t="s">
         <v>63</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G121" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E122" t="s">
         <v>64</v>
       </c>
       <c r="F122" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G122" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E123" t="s">
         <v>65</v>
       </c>
       <c r="F123" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G123" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G124" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G125" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E126" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G126" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E127" t="s">
         <v>65</v>
       </c>
       <c r="F127" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G127" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G128" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -3557,2344 +3602,2344 @@
         <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G129" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E130" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F130" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G130" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E131" t="s">
         <v>65</v>
       </c>
       <c r="F131" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G131" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E132" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F132" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G132" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="G133" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F134" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G134" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F135" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G135" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E136" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F136" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G136" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F137" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G137" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F138" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G138" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E139" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F139" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F140" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G140" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F141" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G141" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F142" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G142" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
         <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F143" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G143" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
         <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F144" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G144" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E145" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F145" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G145" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E146" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F146" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G146" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
         <v>14</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E147" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F147" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G147" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
         <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E148" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F148" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="G148" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
         <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E149" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F149" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G149" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
         <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F150" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G150" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F151" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G151" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E152" t="s">
         <v>72</v>
       </c>
       <c r="F152" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G152" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E153" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F153" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G153" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F154" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G154" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E155" t="s">
         <v>72</v>
       </c>
       <c r="F155" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G155" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E156" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F156" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G156" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F157" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="G157" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E158" t="s">
         <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G158" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E159" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F159" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G159" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
         <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E160" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F160" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G160" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E161" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F161" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G161" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E162" t="s">
         <v>74</v>
       </c>
       <c r="F162" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G162" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E163" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F163" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="G163" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E164" t="s">
         <v>66</v>
       </c>
       <c r="F164" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="G164" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E165" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F165" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G165" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E166" t="s">
         <v>74</v>
       </c>
       <c r="F166" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G166" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E167" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F167" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="G167" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E168" t="s">
         <v>66</v>
       </c>
       <c r="F168" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="G168" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E169" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F169" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="G169" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E170" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F170" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G170" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E171" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F171" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="G171" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E172" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F172" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G172" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
         <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E173" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F173" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G173" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
         <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E174" t="s">
         <v>77</v>
       </c>
       <c r="F174" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G174" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
         <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E175" t="s">
         <v>78</v>
       </c>
       <c r="F175" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="G175" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
         <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E176" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F176" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="G176" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
         <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E177" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F177" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G177" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
         <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E178" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F178" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G178" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
         <v>14</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E179" t="s">
         <v>77</v>
       </c>
       <c r="F179" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G179" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
         <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D180" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E180" t="s">
         <v>78</v>
       </c>
       <c r="F180" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="G180" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
         <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E181" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F181" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="G181" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
         <v>14</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E182" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F182" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G182" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
         <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E183" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F183" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="G183" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
         <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E184" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G184" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
         <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D185" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E185" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F185" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="G185" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E186" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F186" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="G186" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E187" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F187" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G187" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E188" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F188" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G188" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E189" t="s">
         <v>83</v>
       </c>
       <c r="F189" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="G189" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E190" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F190" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="G190" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E191" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F191" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="G191" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E192" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F192" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G192" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E193" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F193" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G193" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E194" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F194" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G194" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E195" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F195" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="G195" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E196" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F196" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="G196" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E197" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F197" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="G197" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D198" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E198" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F198" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G198" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E199" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F199" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="G199" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E200" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F200" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G200" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E201" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F201" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="G201" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E202" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F202" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="G202" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
         <v>20</v>
       </c>
       <c r="D203" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E203" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F203" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="G203" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D204" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E204" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F204" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G204" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E205" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F205" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="G205" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E206" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F206" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G206" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E207" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F207" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G207" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E208" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F208" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="G208" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E209" t="s">
         <v>87</v>
       </c>
       <c r="F209" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="G209" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E210" t="s">
         <v>88</v>
       </c>
       <c r="F210" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="G210" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E211" t="s">
         <v>89</v>
       </c>
       <c r="F211" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G211" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E212" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F212" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G212" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C213" t="s">
         <v>22</v>
       </c>
       <c r="D213" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E213" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F213" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G213" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
         <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E214" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F214" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="G214" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
         <v>22</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E215" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F215" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G215" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
         <v>22</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E216" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F216" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="G216" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D217" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E217" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F217" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G217" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E218" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F218" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="G218" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D219" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E219" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F219" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="G219" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B220" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E220" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F220" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="G220" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
         <v>20</v>
       </c>
       <c r="D221" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E221" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F221" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="G221" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D222" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E222" t="s">
         <v>92</v>
       </c>
       <c r="F222" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G222" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D223" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E223" t="s">
         <v>93</v>
       </c>
       <c r="F223" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="G223" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F224" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="G224" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E225" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F225" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="G225" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D226" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E226" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F226" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G226" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E227" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F227" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="G227" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E228" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F228" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="G228" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E229" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F229" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="G229" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B230" t="s">
         <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E230" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="F230" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G230" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B231" t="s">
         <v>16</v>
@@ -5903,21 +5948,21 @@
         <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E231" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F231" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G231" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B232" t="s">
         <v>16</v>
@@ -5926,21 +5971,21 @@
         <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E232" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F232" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="G232" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B233" t="s">
         <v>16</v>
@@ -5949,21 +5994,21 @@
         <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E233" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F233" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="G233" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
@@ -5972,867 +6017,1396 @@
         <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E234" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F234" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="G234" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D235" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E235" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F235" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G235" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
         <v>16</v>
       </c>
       <c r="C236" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E236" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F236" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="G236" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E237" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F237" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G237" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B238" t="s">
         <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E238" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F238" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="G238" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
         <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E239" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F239" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="G239" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D240" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E240" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F240" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="G240" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D241" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F241" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G241" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E242" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F242" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G242" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D243" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E243" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F243" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G243" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D244" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E244" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F244" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="G244" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D245" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E245" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F245" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G245" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D246" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E246" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F246" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G246" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C247" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D247" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E247" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F247" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G247" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D248" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E248" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F248" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="G248" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D249" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E249" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F249" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G249" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D250" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E250" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F250" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G250" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D251" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E251" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F251" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G251" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D252" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E252" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F252" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G252" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D253" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E253" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F253" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G253" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D254" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E254" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F254" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G254" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D255" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E255" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F255" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G255" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E256" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F256" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G256" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B257" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E257" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F257" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="G257" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E258" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F258" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G258" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D259" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E259" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F259" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="G259" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D260" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E260" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F260" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G260" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D261" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E261" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F261" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="G261" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C262" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D262" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E262" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F262" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="G262" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B263" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D263" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E263" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F263" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="G263" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D264" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E264" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F264" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="G264" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D265" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E265" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F265" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G265" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E266" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F266" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="G266" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E267" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F267" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="G267" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D268" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E268" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F268" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G268" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E269" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F269" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="G269" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" t="s">
         <v>13</v>
       </c>
-      <c r="B270" t="s">
-        <v>14</v>
-      </c>
       <c r="C270" t="s">
         <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E270" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F270" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G270" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" t="s">
         <v>13</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" t="s">
+        <v>32</v>
+      </c>
+      <c r="E271" t="s">
+        <v>108</v>
+      </c>
+      <c r="F271" t="s">
+        <v>169</v>
+      </c>
+      <c r="G271" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>20</v>
+      </c>
+      <c r="D272" t="s">
+        <v>31</v>
+      </c>
+      <c r="E272" t="s">
+        <v>107</v>
+      </c>
+      <c r="F272" t="s">
+        <v>115</v>
+      </c>
+      <c r="G272" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273" t="s">
+        <v>32</v>
+      </c>
+      <c r="E273" t="s">
+        <v>108</v>
+      </c>
+      <c r="F273" t="s">
+        <v>169</v>
+      </c>
+      <c r="G273" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" t="s">
+        <v>33</v>
+      </c>
+      <c r="E274" t="s">
+        <v>109</v>
+      </c>
+      <c r="F274" t="s">
+        <v>117</v>
+      </c>
+      <c r="G274" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" t="s">
+        <v>23</v>
+      </c>
+      <c r="D275" t="s">
+        <v>31</v>
+      </c>
+      <c r="E275" t="s">
+        <v>107</v>
+      </c>
+      <c r="F275" t="s">
+        <v>118</v>
+      </c>
+      <c r="G275" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" t="s">
+        <v>23</v>
+      </c>
+      <c r="D276" t="s">
+        <v>32</v>
+      </c>
+      <c r="E276" t="s">
+        <v>108</v>
+      </c>
+      <c r="F276" t="s">
+        <v>115</v>
+      </c>
+      <c r="G276" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" t="s">
         <v>14</v>
       </c>
-      <c r="C271" t="s">
-        <v>22</v>
-      </c>
-      <c r="D271" t="s">
-        <v>25</v>
-      </c>
-      <c r="E271" t="s">
-        <v>44</v>
-      </c>
-      <c r="F271" t="s">
-        <v>151</v>
-      </c>
-      <c r="G271" t="s">
-        <v>179</v>
+      <c r="C277" t="s">
+        <v>22</v>
+      </c>
+      <c r="D277" t="s">
+        <v>31</v>
+      </c>
+      <c r="E277" t="s">
+        <v>110</v>
+      </c>
+      <c r="F277" t="s">
+        <v>115</v>
+      </c>
+      <c r="G277" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" t="s">
+        <v>14</v>
+      </c>
+      <c r="C278" t="s">
+        <v>22</v>
+      </c>
+      <c r="D278" t="s">
+        <v>32</v>
+      </c>
+      <c r="E278" t="s">
+        <v>41</v>
+      </c>
+      <c r="F278" t="s">
+        <v>170</v>
+      </c>
+      <c r="G278" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279" t="s">
+        <v>22</v>
+      </c>
+      <c r="D279" t="s">
+        <v>33</v>
+      </c>
+      <c r="E279" t="s">
+        <v>111</v>
+      </c>
+      <c r="F279" t="s">
+        <v>117</v>
+      </c>
+      <c r="G279" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" t="s">
+        <v>31</v>
+      </c>
+      <c r="E280" t="s">
+        <v>110</v>
+      </c>
+      <c r="F280" t="s">
+        <v>115</v>
+      </c>
+      <c r="G280" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" t="s">
+        <v>14</v>
+      </c>
+      <c r="C281" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281" t="s">
+        <v>32</v>
+      </c>
+      <c r="E281" t="s">
+        <v>41</v>
+      </c>
+      <c r="F281" t="s">
+        <v>170</v>
+      </c>
+      <c r="G281" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" t="s">
+        <v>14</v>
+      </c>
+      <c r="C282" t="s">
+        <v>20</v>
+      </c>
+      <c r="D282" t="s">
+        <v>33</v>
+      </c>
+      <c r="E282" t="s">
+        <v>111</v>
+      </c>
+      <c r="F282" t="s">
+        <v>117</v>
+      </c>
+      <c r="G282" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" t="s">
+        <v>23</v>
+      </c>
+      <c r="D283" t="s">
+        <v>31</v>
+      </c>
+      <c r="E283" t="s">
+        <v>110</v>
+      </c>
+      <c r="F283" t="s">
+        <v>115</v>
+      </c>
+      <c r="G283" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" t="s">
+        <v>23</v>
+      </c>
+      <c r="D284" t="s">
+        <v>32</v>
+      </c>
+      <c r="E284" t="s">
+        <v>41</v>
+      </c>
+      <c r="F284" t="s">
+        <v>164</v>
+      </c>
+      <c r="G284" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>12</v>
+      </c>
+      <c r="B285" t="s">
+        <v>16</v>
+      </c>
+      <c r="C285" t="s">
+        <v>22</v>
+      </c>
+      <c r="D285" t="s">
+        <v>31</v>
+      </c>
+      <c r="E285" t="s">
+        <v>112</v>
+      </c>
+      <c r="F285" t="s">
+        <v>115</v>
+      </c>
+      <c r="G285" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" t="s">
+        <v>22</v>
+      </c>
+      <c r="D286" t="s">
+        <v>32</v>
+      </c>
+      <c r="E286" t="s">
+        <v>113</v>
+      </c>
+      <c r="F286" t="s">
+        <v>171</v>
+      </c>
+      <c r="G286" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" t="s">
+        <v>16</v>
+      </c>
+      <c r="C287" t="s">
+        <v>22</v>
+      </c>
+      <c r="D287" t="s">
+        <v>33</v>
+      </c>
+      <c r="E287" t="s">
+        <v>114</v>
+      </c>
+      <c r="F287" t="s">
+        <v>117</v>
+      </c>
+      <c r="G287" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288" t="s">
+        <v>20</v>
+      </c>
+      <c r="D288" t="s">
+        <v>31</v>
+      </c>
+      <c r="E288" t="s">
+        <v>112</v>
+      </c>
+      <c r="F288" t="s">
+        <v>115</v>
+      </c>
+      <c r="G288" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>12</v>
+      </c>
+      <c r="B289" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289" t="s">
+        <v>32</v>
+      </c>
+      <c r="E289" t="s">
+        <v>113</v>
+      </c>
+      <c r="F289" t="s">
+        <v>171</v>
+      </c>
+      <c r="G289" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" t="s">
+        <v>33</v>
+      </c>
+      <c r="E290" t="s">
+        <v>114</v>
+      </c>
+      <c r="F290" t="s">
+        <v>117</v>
+      </c>
+      <c r="G290" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>12</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+      <c r="C291" t="s">
+        <v>23</v>
+      </c>
+      <c r="D291" t="s">
+        <v>31</v>
+      </c>
+      <c r="E291" t="s">
+        <v>112</v>
+      </c>
+      <c r="F291" t="s">
+        <v>115</v>
+      </c>
+      <c r="G291" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>12</v>
+      </c>
+      <c r="B292" t="s">
+        <v>16</v>
+      </c>
+      <c r="C292" t="s">
+        <v>23</v>
+      </c>
+      <c r="D292" t="s">
+        <v>32</v>
+      </c>
+      <c r="E292" t="s">
+        <v>113</v>
+      </c>
+      <c r="F292" t="s">
+        <v>172</v>
+      </c>
+      <c r="G292" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" t="s">
+        <v>16</v>
+      </c>
+      <c r="C293" t="s">
+        <v>29</v>
+      </c>
+      <c r="D293" t="s">
+        <v>31</v>
+      </c>
+      <c r="E293" t="s">
+        <v>112</v>
+      </c>
+      <c r="F293" t="s">
+        <v>115</v>
+      </c>
+      <c r="G293" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294" t="s">
+        <v>29</v>
+      </c>
+      <c r="D294" t="s">
+        <v>32</v>
+      </c>
+      <c r="E294" t="s">
+        <v>113</v>
+      </c>
+      <c r="F294" t="s">
+        <v>172</v>
+      </c>
+      <c r="G294" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/output/fertilizer.xlsx
+++ b/output/fertilizer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="162">
   <si>
     <t>Location</t>
   </si>
@@ -68,6 +68,9 @@
     <t>2017</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>HN_NF_IR</t>
   </si>
   <si>
@@ -116,10 +119,19 @@
     <t>3rd nitrogen application</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t/>
+    <t>1st magnesium</t>
+  </si>
+  <si>
+    <t>1st sulfur application</t>
+  </si>
+  <si>
+    <t>1st phosphor application</t>
+  </si>
+  <si>
+    <t>1st potassium application</t>
+  </si>
+  <si>
+    <t>1st magnesium application</t>
   </si>
   <si>
     <t xml:space="preserve">1st nitrogen application </t>
@@ -164,6 +176,12 @@
     <t>2015-03-15</t>
   </si>
   <si>
+    <t>2015-05-07</t>
+  </si>
+  <si>
+    <t>2015-05-29</t>
+  </si>
+  <si>
     <t>2016-03-31</t>
   </si>
   <si>
@@ -173,162 +191,144 @@
     <t>2016-05-20</t>
   </si>
   <si>
+    <t>2017-03-25</t>
+  </si>
+  <si>
+    <t>2017-05-27</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2018-04-18</t>
+  </si>
+  <si>
+    <t>2018-05-09</t>
+  </si>
+  <si>
+    <t>2018-04-06</t>
+  </si>
+  <si>
+    <t>2019-04-04</t>
+  </si>
+  <si>
+    <t>2019-04-26</t>
+  </si>
+  <si>
+    <t>2019-06-08</t>
+  </si>
+  <si>
+    <t>2019-03-29</t>
+  </si>
+  <si>
+    <t>2015-03-14</t>
+  </si>
+  <si>
+    <t>2015-04-17</t>
+  </si>
+  <si>
+    <t>2016-03-19</t>
+  </si>
+  <si>
+    <t>2016-04-08</t>
+  </si>
+  <si>
+    <t>2016-05-29</t>
+  </si>
+  <si>
+    <t>2017-03-26</t>
+  </si>
+  <si>
+    <t>2017-04-21</t>
+  </si>
+  <si>
+    <t>2018-03-22</t>
+  </si>
+  <si>
+    <t>2018-04-20</t>
+  </si>
+  <si>
+    <t>2018-05-25</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2015-04-23</t>
+  </si>
+  <si>
+    <t>2015-06-10</t>
+  </si>
+  <si>
+    <t>2016-03-11</t>
+  </si>
+  <si>
     <t>2016-04-13</t>
   </si>
   <si>
-    <t>2017-03-25</t>
-  </si>
-  <si>
-    <t>2017-05-27</t>
-  </si>
-  <si>
-    <t>2017-05-31</t>
-  </si>
-  <si>
-    <t>2017-03-24</t>
-  </si>
-  <si>
-    <t>2017-03-30</t>
-  </si>
-  <si>
-    <t>2018-04-18</t>
-  </si>
-  <si>
-    <t>2018-05-09</t>
-  </si>
-  <si>
-    <t>2018-04-06</t>
-  </si>
-  <si>
-    <t>2019-04-04</t>
-  </si>
-  <si>
-    <t>2019-04-26</t>
-  </si>
-  <si>
-    <t>2019-06-08</t>
-  </si>
-  <si>
-    <t>2019-03-29</t>
-  </si>
-  <si>
-    <t>2015-03-14</t>
-  </si>
-  <si>
-    <t>2015-04-17</t>
-  </si>
-  <si>
-    <t>2015-05-29</t>
-  </si>
-  <si>
-    <t>2016-03-19</t>
-  </si>
-  <si>
-    <t>2016-04-08</t>
-  </si>
-  <si>
-    <t>2016-05-29</t>
-  </si>
-  <si>
-    <t>2017-03-26</t>
-  </si>
-  <si>
-    <t>2017-04-21</t>
-  </si>
-  <si>
-    <t>2015-04-23</t>
-  </si>
-  <si>
-    <t>2015-06-10</t>
-  </si>
-  <si>
-    <t>2016-03-11</t>
-  </si>
-  <si>
     <t>2016-06-03</t>
   </si>
   <si>
-    <t>2016-05-06</t>
-  </si>
-  <si>
-    <t>2016-06-17</t>
-  </si>
-  <si>
     <t>2016-03-12</t>
   </si>
   <si>
-    <t>2016-05-04</t>
+    <t>2016-04-15</t>
+  </si>
+  <si>
+    <t>2017-03-16</t>
+  </si>
+  <si>
+    <t>2017-04-20</t>
+  </si>
+  <si>
+    <t>2017-05-26</t>
+  </si>
+  <si>
+    <t>2017-03-10</t>
+  </si>
+  <si>
+    <t>2018-03-21</t>
+  </si>
+  <si>
+    <t>2018-04-29</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2019-03-28</t>
+  </si>
+  <si>
+    <t>2019-04-12</t>
+  </si>
+  <si>
+    <t>2019-05-30</t>
+  </si>
+  <si>
+    <t>2019-03-27</t>
+  </si>
+  <si>
+    <t>2015-05-15</t>
+  </si>
+  <si>
+    <t>2016-03-10</t>
   </si>
   <si>
     <t>2016-05-21</t>
   </si>
   <si>
-    <t>2016-03-26</t>
-  </si>
-  <si>
-    <t>2017-03-16</t>
-  </si>
-  <si>
-    <t>2017-04-20</t>
-  </si>
-  <si>
-    <t>2017-05-26</t>
-  </si>
-  <si>
-    <t>2017-03-18</t>
-  </si>
-  <si>
-    <t>2017-05-13</t>
-  </si>
-  <si>
-    <t>2017-06-16</t>
-  </si>
-  <si>
-    <t>2017-03-10</t>
-  </si>
-  <si>
-    <t>2017-03-17</t>
-  </si>
-  <si>
-    <t>2018-03-21</t>
-  </si>
-  <si>
-    <t>2018-04-29</t>
-  </si>
-  <si>
-    <t>2018-06-01</t>
-  </si>
-  <si>
-    <t>2018-03-29</t>
-  </si>
-  <si>
-    <t>2018-05-06</t>
-  </si>
-  <si>
-    <t>2019-03-28</t>
-  </si>
-  <si>
-    <t>2019-04-12</t>
-  </si>
-  <si>
-    <t>2019-05-30</t>
-  </si>
-  <si>
-    <t>2019-04-20</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>2019-03-27</t>
-  </si>
-  <si>
-    <t>2015-05-15</t>
-  </si>
-  <si>
-    <t>2016-03-10</t>
-  </si>
-  <si>
     <t>2017-04-12</t>
   </si>
   <si>
@@ -350,6 +350,18 @@
     <t>2016-06-02</t>
   </si>
   <si>
+    <t>2017-03-15</t>
+  </si>
+  <si>
+    <t>2017-06-02</t>
+  </si>
+  <si>
+    <t>2018-03-11</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
     <t>2019-02-18</t>
   </si>
   <si>
@@ -398,205 +410,94 @@
     <t>80</t>
   </si>
   <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>50kg/ha</t>
-  </si>
-  <si>
-    <t>70kg/ha</t>
-  </si>
-  <si>
-    <t>60kg/ha</t>
-  </si>
-  <si>
-    <t>50 kg/ha</t>
-  </si>
-  <si>
-    <t>96 kg/ha</t>
-  </si>
-  <si>
-    <t>192 kg/ha</t>
-  </si>
-  <si>
-    <t>40kg/ha</t>
-  </si>
-  <si>
-    <t>30kg/ha</t>
-  </si>
-  <si>
-    <t>50 kg N/ha</t>
-  </si>
-  <si>
-    <t>32,5 kgN/ha</t>
-  </si>
-  <si>
-    <t>60 kg N / ha</t>
-  </si>
-  <si>
-    <t>27kg/ha MgO</t>
-  </si>
-  <si>
-    <t>22 kg/ha S</t>
-  </si>
-  <si>
-    <t>71 kg/ha</t>
-  </si>
-  <si>
-    <t>142 kg/ha</t>
-  </si>
-  <si>
-    <t>50 kgN/ha</t>
-  </si>
-  <si>
-    <t>43 kgN/ha</t>
-  </si>
-  <si>
-    <t>60 kgN/ha</t>
-  </si>
-  <si>
-    <t>50kg N/ha</t>
-  </si>
-  <si>
-    <t>49kg N/ha</t>
-  </si>
-  <si>
-    <t>25kg/ha (Mg)</t>
-  </si>
-  <si>
-    <t>48 kg/ha (P)</t>
-  </si>
-  <si>
-    <t>96 kg/ha (K)</t>
-  </si>
-  <si>
-    <t>39 kg N/ha</t>
-  </si>
-  <si>
-    <t>45 kg/ha</t>
-  </si>
-  <si>
-    <t>60 kg/ha</t>
-  </si>
-  <si>
-    <t>55 kg/ha</t>
-  </si>
-  <si>
-    <t>25 kg/ha</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5 kg Bittersalz, 0.7 l Mangan, 0.3 l Kupfer</t>
+    <t>124</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>40 kg N/ha</t>
-  </si>
-  <si>
-    <t>35 kg N/ha</t>
-  </si>
-  <si>
-    <t>30 kg N/ha</t>
+    <t>35</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
-    <t>25</t>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Kieserit</t>
+  </si>
+  <si>
+    <t>PK 12/24</t>
+  </si>
+  <si>
+    <t>P/K 12/24</t>
   </si>
   <si>
     <t>KAS</t>
   </si>
   <si>
-    <t>KAS 27</t>
-  </si>
-  <si>
-    <t>eigntl.50kg/ha</t>
-  </si>
-  <si>
-    <t>eigntl.40kg/ha</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Keserit Mg25%</t>
-  </si>
-  <si>
-    <t>P-Dünger</t>
-  </si>
-  <si>
-    <t>K-Dünger</t>
-  </si>
-  <si>
-    <t>Kierserit 25/20</t>
-  </si>
-  <si>
-    <t>Kieserit</t>
-  </si>
-  <si>
-    <t>PK 12/24</t>
-  </si>
-  <si>
-    <t>P/K 12/24</t>
-  </si>
-  <si>
-    <t>N-Düngung KAS</t>
-  </si>
-  <si>
-    <t>Bittersalz</t>
-  </si>
-  <si>
-    <t>Alzon 40 + 5 S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>YaraVera Amiplus</t>
-  </si>
-  <si>
-    <t>Yara Vera Ami Plus</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>AHL</t>
+    <t>UAN (inhibited)</t>
+  </si>
+  <si>
+    <t>UAN</t>
   </si>
 </sst>
 </file>
@@ -678,19 +579,19 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -701,19 +602,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -724,19 +625,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
@@ -747,19 +648,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -770,19 +671,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -793,19 +694,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -816,19 +717,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -839,19 +740,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -862,19 +763,19 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -885,19 +786,19 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -908,19 +809,19 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -931,19 +832,19 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -954,19 +855,19 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -977,19 +878,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -1000,19 +901,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -1023,19 +924,19 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -1046,19 +947,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
@@ -1069,19 +970,19 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -1092,19 +993,19 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -1115,19 +1016,19 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -1138,19 +1039,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23">
@@ -1161,19 +1062,19 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24">
@@ -1184,19 +1085,19 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
@@ -1207,19 +1108,19 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26">
@@ -1230,19 +1131,19 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27">
@@ -1253,19 +1154,19 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28">
@@ -1276,19 +1177,19 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -1299,19 +1200,19 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
@@ -1322,19 +1223,19 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -1345,19 +1246,19 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32">
@@ -1368,19 +1269,19 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
@@ -1391,19 +1292,19 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34">
@@ -1414,19 +1315,19 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35">
@@ -1437,19 +1338,19 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
@@ -1460,19 +1361,19 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37">
@@ -1483,19 +1384,19 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38">
@@ -1506,19 +1407,19 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
@@ -1529,19 +1430,19 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40">
@@ -1552,19 +1453,19 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1476,19 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1499,19 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43">
@@ -1621,19 +1522,19 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44">
@@ -1644,19 +1545,19 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45">
@@ -1667,19 +1568,19 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -1690,19 +1591,19 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47">
@@ -1713,19 +1614,19 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48">
@@ -1736,19 +1637,19 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G48" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49">
@@ -1759,19 +1660,19 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50">
@@ -1782,19 +1683,19 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51">
@@ -1805,19 +1706,19 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52">
@@ -1831,16 +1732,16 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53">
@@ -1848,22 +1749,22 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G53" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
@@ -1871,22 +1772,22 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G54" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
@@ -1894,22 +1795,22 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G55" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56">
@@ -1917,22 +1818,22 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
         <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G56" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
@@ -1940,22 +1841,22 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
@@ -1963,22 +1864,22 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G58" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59">
@@ -1989,19 +1890,19 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60">
@@ -2012,19 +1913,19 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F60" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61">
@@ -2035,19 +1936,19 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62">
@@ -2058,19 +1959,19 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G62" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63">
@@ -2081,19 +1982,19 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G63" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64">
@@ -2104,19 +2005,19 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65">
@@ -2127,19 +2028,19 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G65" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66">
@@ -2150,19 +2051,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G66" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67">
@@ -2173,19 +2074,19 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68">
@@ -2193,22 +2094,22 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G68" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69">
@@ -2216,22 +2117,22 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G69" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70">
@@ -2239,22 +2140,22 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71">
@@ -2265,19 +2166,19 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G71" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72">
@@ -2288,19 +2189,19 @@
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G72" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
@@ -2311,19 +2212,19 @@
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G73" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74">
@@ -2334,19 +2235,19 @@
         <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G74" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75">
@@ -2357,19 +2258,19 @@
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
         <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76">
@@ -2380,19 +2281,19 @@
         <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77">
@@ -2400,22 +2301,22 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G77" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78">
@@ -2423,22 +2324,22 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G78" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79">
@@ -2446,22 +2347,22 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E79" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G79" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80">
@@ -2469,22 +2370,22 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G80" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81">
@@ -2492,22 +2393,22 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F81" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G81" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82">
@@ -2515,22 +2416,22 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G82" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83">
@@ -2538,22 +2439,22 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
         <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
@@ -2561,22 +2462,22 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
         <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G84" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85">
@@ -2584,22 +2485,22 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
         <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G85" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86">
@@ -2607,22 +2508,22 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
         <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G86" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87">
@@ -2630,22 +2531,22 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G87" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88">
@@ -2653,22 +2554,22 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G88" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89">
@@ -2679,19 +2580,19 @@
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F89" t="s">
         <v>137</v>
       </c>
       <c r="G89" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90">
@@ -2702,19 +2603,19 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E90" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F90" t="s">
         <v>138</v>
       </c>
       <c r="G90" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91">
@@ -2725,19 +2626,19 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G91" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92">
@@ -2748,19 +2649,19 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G92" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
@@ -2771,19 +2672,19 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F93" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G93" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
@@ -2794,19 +2695,19 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F94" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G94" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
@@ -2817,19 +2718,19 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G95" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
@@ -2840,19 +2741,19 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G96" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
@@ -2863,19 +2764,19 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F97" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G97" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
@@ -2886,19 +2787,19 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G98" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
@@ -2909,19 +2810,19 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G99" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
@@ -2932,19 +2833,19 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G100" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
@@ -2952,22 +2853,22 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E101" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F101" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G101" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
@@ -2975,22 +2876,22 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G102" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
@@ -2998,22 +2899,22 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G103" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
@@ -3021,22 +2922,22 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F104" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G104" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
@@ -3044,22 +2945,22 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G105" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
@@ -3067,22 +2968,22 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E106" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G106" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
@@ -3090,22 +2991,22 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F107" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="G107" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
@@ -3113,22 +3014,22 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E108" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F108" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G108" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
@@ -3136,22 +3037,22 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E109" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G109" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
@@ -3159,22 +3060,22 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
@@ -3182,22 +3083,22 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
@@ -3205,22 +3106,22 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G112" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
@@ -3228,22 +3129,22 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F113" t="s">
         <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
@@ -3254,19 +3155,19 @@
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G114" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
@@ -3277,19 +3178,19 @@
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E115" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F115" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G115" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
@@ -3300,19 +3201,19 @@
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E116" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F116" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G116" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
@@ -3323,19 +3224,19 @@
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E117" t="s">
         <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G117" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
@@ -3346,19 +3247,19 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G118" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
@@ -3369,19 +3270,19 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F119" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G119" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
@@ -3392,318 +3293,318 @@
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E120" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F120" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G120" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D121" t="s">
         <v>32</v>
       </c>
       <c r="E121" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F121" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="G121" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D122" t="s">
         <v>33</v>
       </c>
       <c r="E122" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F122" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G122" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D123" t="s">
         <v>34</v>
       </c>
       <c r="E123" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F123" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="G123" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E124" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G124" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F125" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G125" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E126" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F126" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="G126" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G127" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="G128" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F129" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="G129" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E130" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F130" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="G130" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E131" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F131" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G131" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F132" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="G132" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F133" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="G133" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
@@ -3711,22 +3612,22 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E134" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F134" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G134" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135">
@@ -3734,22 +3635,22 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E135" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="G135" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136">
@@ -3757,22 +3658,22 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F136" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="G136" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137">
@@ -3780,22 +3681,22 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E137" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F137" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G137" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138">
@@ -3803,22 +3704,22 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F138" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="G138" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139">
@@ -3826,22 +3727,22 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E139" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G139" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140">
@@ -3849,22 +3750,22 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E140" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F140" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G140" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141">
@@ -3872,22 +3773,22 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E141" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F141" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G141" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142">
@@ -3895,22 +3796,22 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E142" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F142" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G142" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143">
@@ -3918,22 +3819,22 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E143" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F143" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G143" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144">
@@ -3941,22 +3842,22 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E144" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F144" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G144" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145">
@@ -3964,22 +3865,22 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E145" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F145" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G145" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146">
@@ -3987,22 +3888,22 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E146" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F146" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G146" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147">
@@ -4010,22 +3911,22 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E147" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F147" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G147" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148">
@@ -4033,22 +3934,22 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E148" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F148" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G148" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149">
@@ -4056,22 +3957,22 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E149" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F149" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="G149" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150">
@@ -4079,22 +3980,22 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
         <v>32</v>
       </c>
       <c r="E150" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F150" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G150" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151">
@@ -4102,22 +4003,22 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D151" t="s">
         <v>33</v>
       </c>
       <c r="E151" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F151" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G151" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152">
@@ -4125,22 +4026,22 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E152" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F152" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G152" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153">
@@ -4148,183 +4049,183 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D153" t="s">
         <v>32</v>
       </c>
       <c r="E153" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F153" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G153" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E154" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F154" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="G154" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E155" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F155" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G155" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E156" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F156" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="G156" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E157" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F157" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="G157" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E158" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F158" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G158" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E159" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F159" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G159" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E160" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F160" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G160" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161">
@@ -4335,19 +4236,19 @@
         <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E161" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F161" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="G161" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162">
@@ -4355,22 +4256,22 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D162" t="s">
         <v>32</v>
       </c>
       <c r="E162" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F162" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G162" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163">
@@ -4378,22 +4279,22 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D163" t="s">
         <v>33</v>
       </c>
       <c r="E163" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F163" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G163" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
@@ -4401,22 +4302,22 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D164" t="s">
         <v>34</v>
       </c>
       <c r="E164" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F164" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="G164" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165">
@@ -4424,22 +4325,22 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E165" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F165" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G165" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166">
@@ -4447,22 +4348,22 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E166" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F166" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G166" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167">
@@ -4470,22 +4371,22 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E167" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F167" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G167" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168">
@@ -4493,22 +4394,22 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D168" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E168" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F168" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="G168" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169">
@@ -4516,22 +4417,22 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E169" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F169" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G169" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170">
@@ -4539,22 +4440,22 @@
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D170" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E170" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F170" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="G170" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171">
@@ -4562,22 +4463,22 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E171" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F171" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="G171" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="172">
@@ -4588,19 +4489,19 @@
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E172" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F172" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G172" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173">
@@ -4608,22 +4509,22 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
         <v>32</v>
       </c>
       <c r="E173" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F173" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G173" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174">
@@ -4631,22 +4532,22 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D174" t="s">
         <v>33</v>
       </c>
       <c r="E174" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F174" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G174" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175">
@@ -4654,22 +4555,22 @@
         <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E175" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F175" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G175" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176">
@@ -4677,22 +4578,22 @@
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E176" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F176" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G176" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177">
@@ -4700,22 +4601,22 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D177" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E177" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F177" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G177" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178">
@@ -4723,22 +4624,22 @@
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E178" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F178" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G178" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179">
@@ -4746,22 +4647,22 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E179" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F179" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G179" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180">
@@ -4769,22 +4670,22 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D180" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E180" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F180" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G180" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181">
@@ -4792,22 +4693,22 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E181" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F181" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="G181" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182">
@@ -4815,22 +4716,22 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E182" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F182" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="G182" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183">
@@ -4838,22 +4739,22 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D183" t="s">
         <v>32</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F183" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G183" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184">
@@ -4861,22 +4762,22 @@
         <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
         <v>33</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="F184" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G184" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185">
@@ -4884,22 +4785,22 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E185" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F185" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G185" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186">
@@ -4907,22 +4808,22 @@
         <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E186" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F186" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G186" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187">
@@ -4930,22 +4831,22 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D187" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E187" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F187" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G187" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="188">
@@ -4953,22 +4854,22 @@
         <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E188" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F188" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G188" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189">
@@ -4976,22 +4877,22 @@
         <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E189" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F189" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="G189" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190">
@@ -4999,22 +4900,22 @@
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E190" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F190" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G190" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191">
@@ -5022,22 +4923,22 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E191" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F191" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G191" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192">
@@ -5045,22 +4946,22 @@
         <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D192" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E192" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F192" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G192" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="193">
@@ -5068,22 +4969,22 @@
         <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D193" t="s">
         <v>32</v>
       </c>
       <c r="E193" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F193" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G193" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194">
@@ -5091,22 +4992,22 @@
         <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D194" t="s">
         <v>33</v>
       </c>
       <c r="E194" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F194" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G194" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195">
@@ -5114,22 +5015,22 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D195" t="s">
         <v>34</v>
       </c>
       <c r="E195" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F195" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="G195" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196">
@@ -5137,22 +5038,22 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E196" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F196" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G196" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197">
@@ -5160,22 +5061,22 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E197" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F197" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="G197" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198">
@@ -5183,22 +5084,22 @@
         <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E198" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F198" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G198" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199">
@@ -5206,22 +5107,22 @@
         <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D199" t="s">
         <v>32</v>
       </c>
       <c r="E199" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F199" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G199" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200">
@@ -5229,22 +5130,22 @@
         <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D200" t="s">
         <v>33</v>
       </c>
       <c r="E200" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F200" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="G200" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201">
@@ -5252,22 +5153,22 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E201" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F201" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G201" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202">
@@ -5275,22 +5176,22 @@
         <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E202" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F202" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G202" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203">
@@ -5298,22 +5199,22 @@
         <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D203" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E203" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F203" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="G203" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204">
@@ -5321,444 +5222,444 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
         <v>30</v>
       </c>
       <c r="D204" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E204" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F204" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G204" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D205" t="s">
         <v>32</v>
       </c>
       <c r="E205" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="G205" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E206" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F206" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="G206" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E207" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F207" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G207" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E208" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F208" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="G208" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C209" t="s">
         <v>23</v>
       </c>
       <c r="D209" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E209" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F209" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="G209" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C210" t="s">
         <v>23</v>
       </c>
       <c r="D210" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E210" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F210" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="G210" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
         <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E211" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F211" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="G211" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E212" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F212" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G212" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E213" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F213" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G213" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D214" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E214" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F214" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G214" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E215" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F215" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="G215" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E216" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F216" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="G216" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E217" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F217" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="G217" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E218" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F218" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="G218" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D219" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E219" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F219" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G219" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D220" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E220" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F220" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G220" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E221" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F221" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G221" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E222" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F222" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G222" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
         <v>23</v>
@@ -5767,1646 +5668,1025 @@
         <v>32</v>
       </c>
       <c r="E223" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F223" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="G223" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
         <v>23</v>
       </c>
       <c r="D224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E224" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F224" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G224" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E225" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F225" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="G225" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E226" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F226" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="G226" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D227" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E227" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F227" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="G227" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E228" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F228" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="G228" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E229" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F229" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="G229" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E230" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F230" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G230" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E231" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F231" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G231" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E232" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F232" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G232" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E233" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F233" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="G233" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E234" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F234" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="G234" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E235" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F235" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G235" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
         <v>32</v>
       </c>
       <c r="E236" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F236" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G236" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D237" t="s">
         <v>33</v>
       </c>
       <c r="E237" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F237" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G237" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D238" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E238" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F238" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="G238" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D239" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E239" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F239" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="G239" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C240" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D240" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E240" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F240" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G240" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C241" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D241" t="s">
         <v>32</v>
       </c>
       <c r="E241" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="F241" t="s">
+        <v>119</v>
+      </c>
+      <c r="G241" t="s">
         <v>161</v>
-      </c>
-      <c r="G241" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C242" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E242" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F242" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="G242" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C243" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E243" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F243" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="G243" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D244" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E244" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F244" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G244" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E245" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F245" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G245" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C246" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D246" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E246" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F246" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="G246" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C247" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D247" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E247" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F247" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G247" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E248" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F248" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G248" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C249" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E249" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F249" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G249" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B250" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D250" t="s">
         <v>34</v>
       </c>
       <c r="E250" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F250" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="G250" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D251" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E251" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F251" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="G251" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B252" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E252" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F252" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G252" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D253" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E253" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F253" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G253" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B254" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E254" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F254" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G254" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D255" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E255" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F255" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="G255" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D256" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E256" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F256" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="G256" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D257" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E257" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F257" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="G257" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C258" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D258" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E258" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="F258" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="G258" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D259" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E259" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F259" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G259" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D260" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E260" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="F260" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G260" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E261" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="F261" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="G261" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C262" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D262" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E262" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F262" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G262" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E263" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F263" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G263" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E264" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F264" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="G264" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D265" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E265" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F265" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="G265" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B266" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D266" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E266" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F266" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="G266" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D267" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E267" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F267" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="G267" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>11</v>
-      </c>
-      <c r="B268" t="s">
-        <v>17</v>
-      </c>
-      <c r="C268" t="s">
-        <v>20</v>
-      </c>
-      <c r="D268" t="s">
-        <v>32</v>
-      </c>
-      <c r="E268" t="s">
-        <v>105</v>
-      </c>
-      <c r="F268" t="s">
-        <v>167</v>
-      </c>
-      <c r="G268" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>11</v>
-      </c>
-      <c r="B269" t="s">
-        <v>17</v>
-      </c>
-      <c r="C269" t="s">
-        <v>20</v>
-      </c>
-      <c r="D269" t="s">
-        <v>33</v>
-      </c>
-      <c r="E269" t="s">
-        <v>106</v>
-      </c>
-      <c r="F269" t="s">
-        <v>168</v>
-      </c>
-      <c r="G269" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>12</v>
-      </c>
-      <c r="B270" t="s">
-        <v>13</v>
-      </c>
-      <c r="C270" t="s">
-        <v>22</v>
-      </c>
-      <c r="D270" t="s">
-        <v>31</v>
-      </c>
-      <c r="E270" t="s">
-        <v>107</v>
-      </c>
-      <c r="F270" t="s">
-        <v>115</v>
-      </c>
-      <c r="G270" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>12</v>
-      </c>
-      <c r="B271" t="s">
-        <v>13</v>
-      </c>
-      <c r="C271" t="s">
-        <v>22</v>
-      </c>
-      <c r="D271" t="s">
-        <v>32</v>
-      </c>
-      <c r="E271" t="s">
-        <v>108</v>
-      </c>
-      <c r="F271" t="s">
-        <v>169</v>
-      </c>
-      <c r="G271" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>12</v>
-      </c>
-      <c r="B272" t="s">
-        <v>13</v>
-      </c>
-      <c r="C272" t="s">
-        <v>20</v>
-      </c>
-      <c r="D272" t="s">
-        <v>31</v>
-      </c>
-      <c r="E272" t="s">
-        <v>107</v>
-      </c>
-      <c r="F272" t="s">
-        <v>115</v>
-      </c>
-      <c r="G272" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>12</v>
-      </c>
-      <c r="B273" t="s">
-        <v>13</v>
-      </c>
-      <c r="C273" t="s">
-        <v>20</v>
-      </c>
-      <c r="D273" t="s">
-        <v>32</v>
-      </c>
-      <c r="E273" t="s">
-        <v>108</v>
-      </c>
-      <c r="F273" t="s">
-        <v>169</v>
-      </c>
-      <c r="G273" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>12</v>
-      </c>
-      <c r="B274" t="s">
-        <v>13</v>
-      </c>
-      <c r="C274" t="s">
-        <v>20</v>
-      </c>
-      <c r="D274" t="s">
-        <v>33</v>
-      </c>
-      <c r="E274" t="s">
-        <v>109</v>
-      </c>
-      <c r="F274" t="s">
-        <v>117</v>
-      </c>
-      <c r="G274" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>12</v>
-      </c>
-      <c r="B275" t="s">
-        <v>13</v>
-      </c>
-      <c r="C275" t="s">
-        <v>23</v>
-      </c>
-      <c r="D275" t="s">
-        <v>31</v>
-      </c>
-      <c r="E275" t="s">
-        <v>107</v>
-      </c>
-      <c r="F275" t="s">
-        <v>118</v>
-      </c>
-      <c r="G275" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>12</v>
-      </c>
-      <c r="B276" t="s">
-        <v>13</v>
-      </c>
-      <c r="C276" t="s">
-        <v>23</v>
-      </c>
-      <c r="D276" t="s">
-        <v>32</v>
-      </c>
-      <c r="E276" t="s">
-        <v>108</v>
-      </c>
-      <c r="F276" t="s">
-        <v>115</v>
-      </c>
-      <c r="G276" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>12</v>
-      </c>
-      <c r="B277" t="s">
-        <v>14</v>
-      </c>
-      <c r="C277" t="s">
-        <v>22</v>
-      </c>
-      <c r="D277" t="s">
-        <v>31</v>
-      </c>
-      <c r="E277" t="s">
-        <v>110</v>
-      </c>
-      <c r="F277" t="s">
-        <v>115</v>
-      </c>
-      <c r="G277" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>12</v>
-      </c>
-      <c r="B278" t="s">
-        <v>14</v>
-      </c>
-      <c r="C278" t="s">
-        <v>22</v>
-      </c>
-      <c r="D278" t="s">
-        <v>32</v>
-      </c>
-      <c r="E278" t="s">
-        <v>41</v>
-      </c>
-      <c r="F278" t="s">
-        <v>170</v>
-      </c>
-      <c r="G278" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>12</v>
-      </c>
-      <c r="B279" t="s">
-        <v>14</v>
-      </c>
-      <c r="C279" t="s">
-        <v>22</v>
-      </c>
-      <c r="D279" t="s">
-        <v>33</v>
-      </c>
-      <c r="E279" t="s">
-        <v>111</v>
-      </c>
-      <c r="F279" t="s">
-        <v>117</v>
-      </c>
-      <c r="G279" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>12</v>
-      </c>
-      <c r="B280" t="s">
-        <v>14</v>
-      </c>
-      <c r="C280" t="s">
-        <v>20</v>
-      </c>
-      <c r="D280" t="s">
-        <v>31</v>
-      </c>
-      <c r="E280" t="s">
-        <v>110</v>
-      </c>
-      <c r="F280" t="s">
-        <v>115</v>
-      </c>
-      <c r="G280" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>12</v>
-      </c>
-      <c r="B281" t="s">
-        <v>14</v>
-      </c>
-      <c r="C281" t="s">
-        <v>20</v>
-      </c>
-      <c r="D281" t="s">
-        <v>32</v>
-      </c>
-      <c r="E281" t="s">
-        <v>41</v>
-      </c>
-      <c r="F281" t="s">
-        <v>170</v>
-      </c>
-      <c r="G281" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>12</v>
-      </c>
-      <c r="B282" t="s">
-        <v>14</v>
-      </c>
-      <c r="C282" t="s">
-        <v>20</v>
-      </c>
-      <c r="D282" t="s">
-        <v>33</v>
-      </c>
-      <c r="E282" t="s">
-        <v>111</v>
-      </c>
-      <c r="F282" t="s">
-        <v>117</v>
-      </c>
-      <c r="G282" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>12</v>
-      </c>
-      <c r="B283" t="s">
-        <v>14</v>
-      </c>
-      <c r="C283" t="s">
-        <v>23</v>
-      </c>
-      <c r="D283" t="s">
-        <v>31</v>
-      </c>
-      <c r="E283" t="s">
-        <v>110</v>
-      </c>
-      <c r="F283" t="s">
-        <v>115</v>
-      </c>
-      <c r="G283" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>12</v>
-      </c>
-      <c r="B284" t="s">
-        <v>14</v>
-      </c>
-      <c r="C284" t="s">
-        <v>23</v>
-      </c>
-      <c r="D284" t="s">
-        <v>32</v>
-      </c>
-      <c r="E284" t="s">
-        <v>41</v>
-      </c>
-      <c r="F284" t="s">
-        <v>164</v>
-      </c>
-      <c r="G284" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>12</v>
-      </c>
-      <c r="B285" t="s">
-        <v>16</v>
-      </c>
-      <c r="C285" t="s">
-        <v>22</v>
-      </c>
-      <c r="D285" t="s">
-        <v>31</v>
-      </c>
-      <c r="E285" t="s">
-        <v>112</v>
-      </c>
-      <c r="F285" t="s">
-        <v>115</v>
-      </c>
-      <c r="G285" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>12</v>
-      </c>
-      <c r="B286" t="s">
-        <v>16</v>
-      </c>
-      <c r="C286" t="s">
-        <v>22</v>
-      </c>
-      <c r="D286" t="s">
-        <v>32</v>
-      </c>
-      <c r="E286" t="s">
-        <v>113</v>
-      </c>
-      <c r="F286" t="s">
-        <v>171</v>
-      </c>
-      <c r="G286" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>12</v>
-      </c>
-      <c r="B287" t="s">
-        <v>16</v>
-      </c>
-      <c r="C287" t="s">
-        <v>22</v>
-      </c>
-      <c r="D287" t="s">
-        <v>33</v>
-      </c>
-      <c r="E287" t="s">
-        <v>114</v>
-      </c>
-      <c r="F287" t="s">
-        <v>117</v>
-      </c>
-      <c r="G287" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>12</v>
-      </c>
-      <c r="B288" t="s">
-        <v>16</v>
-      </c>
-      <c r="C288" t="s">
-        <v>20</v>
-      </c>
-      <c r="D288" t="s">
-        <v>31</v>
-      </c>
-      <c r="E288" t="s">
-        <v>112</v>
-      </c>
-      <c r="F288" t="s">
-        <v>115</v>
-      </c>
-      <c r="G288" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>12</v>
-      </c>
-      <c r="B289" t="s">
-        <v>16</v>
-      </c>
-      <c r="C289" t="s">
-        <v>20</v>
-      </c>
-      <c r="D289" t="s">
-        <v>32</v>
-      </c>
-      <c r="E289" t="s">
-        <v>113</v>
-      </c>
-      <c r="F289" t="s">
-        <v>171</v>
-      </c>
-      <c r="G289" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>12</v>
-      </c>
-      <c r="B290" t="s">
-        <v>16</v>
-      </c>
-      <c r="C290" t="s">
-        <v>20</v>
-      </c>
-      <c r="D290" t="s">
-        <v>33</v>
-      </c>
-      <c r="E290" t="s">
-        <v>114</v>
-      </c>
-      <c r="F290" t="s">
-        <v>117</v>
-      </c>
-      <c r="G290" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>12</v>
-      </c>
-      <c r="B291" t="s">
-        <v>16</v>
-      </c>
-      <c r="C291" t="s">
-        <v>23</v>
-      </c>
-      <c r="D291" t="s">
-        <v>31</v>
-      </c>
-      <c r="E291" t="s">
-        <v>112</v>
-      </c>
-      <c r="F291" t="s">
-        <v>115</v>
-      </c>
-      <c r="G291" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>12</v>
-      </c>
-      <c r="B292" t="s">
-        <v>16</v>
-      </c>
-      <c r="C292" t="s">
-        <v>23</v>
-      </c>
-      <c r="D292" t="s">
-        <v>32</v>
-      </c>
-      <c r="E292" t="s">
-        <v>113</v>
-      </c>
-      <c r="F292" t="s">
-        <v>172</v>
-      </c>
-      <c r="G292" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>12</v>
-      </c>
-      <c r="B293" t="s">
-        <v>16</v>
-      </c>
-      <c r="C293" t="s">
-        <v>29</v>
-      </c>
-      <c r="D293" t="s">
-        <v>31</v>
-      </c>
-      <c r="E293" t="s">
-        <v>112</v>
-      </c>
-      <c r="F293" t="s">
-        <v>115</v>
-      </c>
-      <c r="G293" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>12</v>
-      </c>
-      <c r="B294" t="s">
-        <v>16</v>
-      </c>
-      <c r="C294" t="s">
-        <v>29</v>
-      </c>
-      <c r="D294" t="s">
-        <v>32</v>
-      </c>
-      <c r="E294" t="s">
-        <v>113</v>
-      </c>
-      <c r="F294" t="s">
-        <v>172</v>
-      </c>
-      <c r="G294" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
